--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -800,11 +800,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1374,31 +1371,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="5">
         <v>0.8</v>
       </c>
       <c r="G2">
@@ -1413,13 +1410,13 @@
       <c r="J2">
         <v>0.8</v>
       </c>
-      <c r="K2" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="M2" s="8">
+      <c r="K2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M2" s="7">
         <v>0.8</v>
       </c>
       <c r="N2">
@@ -1427,16 +1424,16 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
         <v>3</v>
       </c>
       <c r="G3">
@@ -1451,13 +1448,13 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="8">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4">
-        <v>3</v>
-      </c>
-      <c r="M3" s="8">
+      <c r="K3" s="7">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="7">
         <v>3</v>
       </c>
       <c r="N3">
@@ -1465,16 +1462,16 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
       <c r="G4">
@@ -1489,13 +1486,13 @@
       <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>4</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4">
@@ -1503,16 +1500,16 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.003</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.00425</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.004</v>
       </c>
       <c r="E5">
@@ -1530,13 +1527,13 @@
       <c r="J5">
         <v>0.003</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.003</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>0.003</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>0.004</v>
       </c>
       <c r="N5">
@@ -1544,16 +1541,16 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="G6">
@@ -1568,13 +1565,13 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6">
@@ -1582,16 +1579,16 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>301</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>301</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>161</v>
       </c>
       <c r="G7" s="1">
@@ -1606,13 +1603,13 @@
       <c r="J7">
         <v>281</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>301</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>301</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>301</v>
       </c>
       <c r="N7">
@@ -1620,16 +1617,16 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>-0.2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>-0.2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>-0.4</v>
       </c>
       <c r="G8">
@@ -1644,13 +1641,13 @@
       <c r="J8">
         <v>-0.3</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>-0.2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>-0.2</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>-0.2</v>
       </c>
       <c r="N8">
@@ -1658,16 +1655,16 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
-        <v>20000</v>
-      </c>
-      <c r="C9" s="6">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="5">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="5">
         <v>20000</v>
       </c>
       <c r="G9">
@@ -1682,13 +1679,13 @@
       <c r="J9">
         <v>20000</v>
       </c>
-      <c r="K9" s="8">
-        <v>20000</v>
-      </c>
-      <c r="L9" s="4">
-        <v>20000</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="K9" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M9" s="7">
         <v>20000</v>
       </c>
       <c r="N9">
@@ -1696,16 +1693,16 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>10</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>10</v>
       </c>
       <c r="G10" s="1">
@@ -1720,13 +1717,13 @@
       <c r="J10">
         <v>10</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>10</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>10</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>10</v>
       </c>
       <c r="N10">
@@ -1734,16 +1731,16 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>9</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
       <c r="G11">
@@ -1758,13 +1755,13 @@
       <c r="J11">
         <v>8</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>6</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>7</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>7</v>
       </c>
       <c r="N11">
@@ -1772,16 +1769,16 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>6</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="G12">
@@ -1796,13 +1793,13 @@
       <c r="J12">
         <v>8</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>6</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>5</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>5</v>
       </c>
       <c r="N12">
@@ -1810,16 +1807,16 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>11</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>10</v>
       </c>
       <c r="G13" s="1">
@@ -1834,13 +1831,13 @@
       <c r="J13">
         <v>10</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>10</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>10</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13">
@@ -1848,16 +1845,16 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G14" t="s">
@@ -1872,13 +1869,13 @@
       <c r="J14" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N14" t="s">
@@ -1886,10 +1883,10 @@
       </c>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1903,10 +1900,10 @@
       <c r="I18">
         <v>0.8</v>
       </c>
-      <c r="J18" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="J18" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="3">
         <v>0.8</v>
       </c>
       <c r="N18">
@@ -1939,7 +1936,7 @@
       <c r="W18">
         <v>0.8</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="7">
         <v>0.8</v>
       </c>
       <c r="Y18">
@@ -1960,7 +1957,7 @@
       <c r="AD18">
         <v>0.8</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AE18" s="3">
         <v>0.8</v>
       </c>
       <c r="AF18">
@@ -1983,10 +1980,10 @@
       <c r="I19">
         <v>3</v>
       </c>
-      <c r="J19" s="8">
-        <v>3</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J19" s="7">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
         <v>3</v>
       </c>
       <c r="N19">
@@ -2019,7 +2016,7 @@
       <c r="W19">
         <v>3</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="7">
         <v>3</v>
       </c>
       <c r="Y19">
@@ -2040,7 +2037,7 @@
       <c r="AD19">
         <v>3</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AE19" s="3">
         <v>3</v>
       </c>
       <c r="AF19">
@@ -2063,10 +2060,10 @@
       <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>5</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>5</v>
       </c>
       <c r="N20">
@@ -2099,7 +2096,7 @@
       <c r="W20">
         <v>4</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="7">
         <v>4</v>
       </c>
       <c r="Y20">
@@ -2120,7 +2117,7 @@
       <c r="AD20">
         <v>4</v>
       </c>
-      <c r="AE20" s="4">
+      <c r="AE20" s="3">
         <v>4</v>
       </c>
       <c r="AF20">
@@ -2143,10 +2140,10 @@
       <c r="I21">
         <v>0.0045</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>0.0045</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.00425</v>
       </c>
       <c r="N21">
@@ -2179,7 +2176,7 @@
       <c r="W21">
         <v>0.003</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="7">
         <v>0.003</v>
       </c>
       <c r="Y21">
@@ -2200,7 +2197,7 @@
       <c r="AD21">
         <v>0.005</v>
       </c>
-      <c r="AE21" s="4">
+      <c r="AE21" s="3">
         <v>0.006</v>
       </c>
       <c r="AF21">
@@ -2223,10 +2220,10 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" s="8">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
         <v>1</v>
       </c>
       <c r="N22">
@@ -2259,7 +2256,7 @@
       <c r="W22">
         <v>0.5</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="7">
         <v>1</v>
       </c>
       <c r="Y22">
@@ -2280,7 +2277,7 @@
       <c r="AD22">
         <v>1</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AE22" s="3">
         <v>1</v>
       </c>
       <c r="AF22">
@@ -2303,10 +2300,10 @@
       <c r="I23">
         <v>301</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>301</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>301</v>
       </c>
       <c r="N23">
@@ -2339,7 +2336,7 @@
       <c r="W23">
         <v>151</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="7">
         <v>181</v>
       </c>
       <c r="Y23">
@@ -2360,7 +2357,7 @@
       <c r="AD23">
         <v>161</v>
       </c>
-      <c r="AE23" s="4">
+      <c r="AE23" s="3">
         <v>161</v>
       </c>
       <c r="AF23">
@@ -2383,10 +2380,10 @@
       <c r="I24">
         <v>-0.2</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>-0.2</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>-0.2</v>
       </c>
       <c r="N24">
@@ -2419,7 +2416,7 @@
       <c r="W24">
         <v>-0.3</v>
       </c>
-      <c r="X24" s="8">
+      <c r="X24" s="7">
         <v>-0.3</v>
       </c>
       <c r="Y24">
@@ -2440,7 +2437,7 @@
       <c r="AD24">
         <v>-0.3</v>
       </c>
-      <c r="AE24" s="4">
+      <c r="AE24" s="3">
         <v>-0.4</v>
       </c>
       <c r="AF24">
@@ -2463,10 +2460,10 @@
       <c r="I25">
         <v>20000</v>
       </c>
-      <c r="J25" s="8">
-        <v>20000</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="J25" s="7">
+        <v>20000</v>
+      </c>
+      <c r="K25" s="3">
         <v>20000</v>
       </c>
       <c r="N25">
@@ -2499,7 +2496,7 @@
       <c r="W25">
         <v>20000</v>
       </c>
-      <c r="X25" s="8">
+      <c r="X25" s="7">
         <v>20000</v>
       </c>
       <c r="Y25">
@@ -2520,7 +2517,7 @@
       <c r="AD25">
         <v>20000</v>
       </c>
-      <c r="AE25" s="4">
+      <c r="AE25" s="3">
         <v>20000</v>
       </c>
       <c r="AF25">
@@ -2543,10 +2540,10 @@
       <c r="I26">
         <v>11</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>11</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>11</v>
       </c>
       <c r="N26">
@@ -2579,7 +2576,7 @@
       <c r="W26">
         <v>9</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X26" s="7">
         <v>9</v>
       </c>
       <c r="Y26">
@@ -2600,7 +2597,7 @@
       <c r="AD26">
         <v>8</v>
       </c>
-      <c r="AE26" s="4">
+      <c r="AE26" s="3">
         <v>8</v>
       </c>
       <c r="AF26">
@@ -2623,10 +2620,10 @@
       <c r="I27">
         <v>8</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>9</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>9</v>
       </c>
       <c r="N27">
@@ -2659,7 +2656,7 @@
       <c r="W27">
         <v>3</v>
       </c>
-      <c r="X27" s="8">
+      <c r="X27" s="7">
         <v>2</v>
       </c>
       <c r="Y27">
@@ -2680,7 +2677,7 @@
       <c r="AD27">
         <v>2</v>
       </c>
-      <c r="AE27" s="4">
+      <c r="AE27" s="3">
         <v>2</v>
       </c>
       <c r="AF27">
@@ -2703,10 +2700,10 @@
       <c r="I28">
         <v>6</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>6</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>6</v>
       </c>
       <c r="N28">
@@ -2739,7 +2736,7 @@
       <c r="W28">
         <v>6</v>
       </c>
-      <c r="X28" s="8">
+      <c r="X28" s="7">
         <v>6</v>
       </c>
       <c r="Y28">
@@ -2760,7 +2757,7 @@
       <c r="AD28">
         <v>3</v>
       </c>
-      <c r="AE28" s="4">
+      <c r="AE28" s="3">
         <v>3</v>
       </c>
       <c r="AF28">
@@ -2783,10 +2780,10 @@
       <c r="I29">
         <v>11</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <v>11</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>11</v>
       </c>
       <c r="N29">
@@ -2819,7 +2816,7 @@
       <c r="W29">
         <v>9</v>
       </c>
-      <c r="X29" s="8">
+      <c r="X29" s="7">
         <v>9</v>
       </c>
       <c r="Y29">
@@ -2840,7 +2837,7 @@
       <c r="AD29">
         <v>8</v>
       </c>
-      <c r="AE29" s="4">
+      <c r="AE29" s="3">
         <v>8</v>
       </c>
       <c r="AF29">
@@ -2863,10 +2860,10 @@
       <c r="I30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N30" t="s">
@@ -2899,7 +2896,7 @@
       <c r="W30" t="s">
         <v>18</v>
       </c>
-      <c r="X30" s="8" t="s">
+      <c r="X30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Y30" t="s">
@@ -2920,7 +2917,7 @@
       <c r="AD30" t="s">
         <v>18</v>
       </c>
-      <c r="AE30" s="4" t="s">
+      <c r="AE30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AF30" t="s">
@@ -2945,7 +2942,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2984,19 +2981,25 @@
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -3040,7 +3043,7 @@
       <c r="C16">
         <v>4.5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>5.5</v>
       </c>
       <c r="E16">
@@ -3049,7 +3052,7 @@
       <c r="F16">
         <v>5.3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>5.5</v>
       </c>
     </row>
@@ -3060,7 +3063,7 @@
       <c r="C17">
         <v>0.006</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.0055</v>
       </c>
       <c r="E17">
@@ -3069,7 +3072,7 @@
       <c r="F17">
         <v>0.006</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>0.006</v>
       </c>
     </row>
@@ -3080,7 +3083,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>6</v>
       </c>
       <c r="E18">
@@ -3089,7 +3092,7 @@
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>6</v>
       </c>
     </row>
@@ -3097,7 +3100,7 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2</v>
       </c>
       <c r="E19">
@@ -3106,7 +3109,7 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3114,7 +3117,7 @@
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20">
@@ -3123,7 +3126,7 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3134,7 +3137,7 @@
       <c r="C21">
         <v>0.6</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>0.6</v>
       </c>
       <c r="E21">
@@ -3143,7 +3146,7 @@
       <c r="F21">
         <v>0.2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.4</v>
       </c>
     </row>
@@ -3154,7 +3157,7 @@
       <c r="C22">
         <v>0.3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0.3</v>
       </c>
       <c r="E22">
@@ -3163,7 +3166,7 @@
       <c r="F22">
         <v>0.3</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -3174,7 +3177,7 @@
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>6</v>
       </c>
       <c r="E23">
@@ -3183,7 +3186,7 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3194,7 +3197,7 @@
       <c r="C24">
         <v>60000</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>60000</v>
       </c>
       <c r="E24">
@@ -3203,7 +3206,7 @@
       <c r="F24">
         <v>60000</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>70000</v>
       </c>
     </row>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="79">
   <si>
     <t>6h 3</t>
   </si>
@@ -190,34 +190,43 @@
     <t>6h 1</t>
   </si>
   <si>
+    <t>0.8,3,7,0.012</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.0045</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.005</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.04</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.006</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.02</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.007</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.0065</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.01</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.03</t>
+  </si>
+  <si>
+    <t>0.8,3,7,0.015</t>
+  </si>
+  <si>
     <t>0.8,3,7,0.009</t>
   </si>
   <si>
-    <t>0.8,3,7,0.005</t>
-  </si>
-  <si>
-    <t>0.8,3,7,0.04</t>
-  </si>
-  <si>
-    <t>0.8,3,7,0.006</t>
-  </si>
-  <si>
-    <t>0.8,3,7,0.02</t>
-  </si>
-  <si>
-    <t>0.8,3,7,0.007</t>
-  </si>
-  <si>
-    <t>0.8,3,7,0.0065</t>
-  </si>
-  <si>
-    <t>0.8,3,7,0.01</t>
-  </si>
-  <si>
-    <t>0.8,3,7,0.03</t>
-  </si>
-  <si>
-    <t>0.8,3,7,0.015</t>
+    <t>0.8,3,7,0.0125</t>
   </si>
   <si>
     <t>good</t>
@@ -254,6 +263,9 @@
   </si>
   <si>
     <t>0.8,3,7,0.008</t>
+  </si>
+  <si>
+    <t>12h 5</t>
   </si>
 </sst>
 </file>
@@ -4202,10 +4214,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4258,7 +4270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4349,8 +4361,20 @@
       <c r="AE2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AF2">
+        <v>6</v>
+      </c>
+      <c r="AG2">
+        <v>6</v>
+      </c>
+      <c r="AH2">
+        <v>6</v>
+      </c>
+      <c r="AI2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4379,70 +4403,82 @@
         <v>54</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>63</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4527,8 +4563,20 @@
       <c r="AE4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4613,8 +4661,20 @@
       <c r="AE5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4699,8 +4759,20 @@
       <c r="AE6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4791,8 +4863,20 @@
       <c r="AE7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7">
+        <v>0.6</v>
+      </c>
+      <c r="AG7">
+        <v>0.6</v>
+      </c>
+      <c r="AH7">
+        <v>0.6</v>
+      </c>
+      <c r="AI7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4883,8 +4967,20 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AF8">
+        <v>0.3</v>
+      </c>
+      <c r="AG8">
+        <v>0.3</v>
+      </c>
+      <c r="AH8">
+        <v>0.3</v>
+      </c>
+      <c r="AI8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -4975,8 +5071,20 @@
       <c r="AE9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AF9">
+        <v>6</v>
+      </c>
+      <c r="AG9">
+        <v>6</v>
+      </c>
+      <c r="AH9">
+        <v>6</v>
+      </c>
+      <c r="AI9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5002,7 +5110,7 @@
         <v>5000</v>
       </c>
       <c r="I10" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J10" s="2">
         <v>60000</v>
@@ -5067,13 +5175,25 @@
       <c r="AE10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="11" spans="3:31">
+      <c r="AF10">
+        <v>5000</v>
+      </c>
+      <c r="AG10">
+        <v>5000</v>
+      </c>
+      <c r="AH10">
+        <v>5000</v>
+      </c>
+      <c r="AI10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:35">
       <c r="C11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2">
         <v>4</v>
@@ -5150,27 +5270,39 @@
       <c r="AE11">
         <v>5</v>
       </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
+        <v>5</v>
+      </c>
+      <c r="AI11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="6:15">
       <c r="F12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
         <v>52</v>
@@ -5211,22 +5343,22 @@
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S16" s="1">
         <v>6</v>
@@ -5279,25 +5411,25 @@
         <v>7</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AA17" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -5691,7 +5823,7 @@
         <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -5717,7 +5849,7 @@
         <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M27">
         <v>6</v>
@@ -5733,7 +5865,7 @@
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S27" s="1">
         <v>6</v>
@@ -5786,56 +5918,56 @@
         <v>0.02</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="S28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s">
         <v>60</v>
       </c>
-      <c r="T28" t="s">
-        <v>54</v>
-      </c>
-      <c r="U28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V28" t="s">
-        <v>70</v>
-      </c>
-      <c r="W28" t="s">
-        <v>59</v>
-      </c>
       <c r="Z28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD28" t="s">
         <v>61</v>
       </c>
-      <c r="AC28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>60</v>
-      </c>
       <c r="AE28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -6361,6 +6493,59 @@
       </c>
       <c r="AE36">
         <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9">
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="7680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="28-12" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
   <si>
     <t>6h 3</t>
   </si>
@@ -142,9 +144,6 @@
     <t>LAST TEST(IT IS GOOD)</t>
   </si>
   <si>
-    <t>LAST TEST</t>
-  </si>
-  <si>
     <t>0H 1</t>
   </si>
   <si>
@@ -269,6 +268,72 @@
   </si>
   <si>
     <t>12h 5</t>
+  </si>
+  <si>
+    <t>min_drop_fraction</t>
+  </si>
+  <si>
+    <t>r_centers</t>
+  </si>
+  <si>
+    <t>I_smooth,sigma</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>image_smooth,sig</t>
+  </si>
+  <si>
+    <t>blobs thresh</t>
+  </si>
+  <si>
+    <t>radius *</t>
+  </si>
+  <si>
+    <t>max_frac</t>
+  </si>
+  <si>
+    <t>BEFORE(GOOD)</t>
+  </si>
+  <si>
+    <t>oh 1</t>
+  </si>
+  <si>
+    <t>not good</t>
+  </si>
+  <si>
+    <t>OH 2</t>
+  </si>
+  <si>
+    <t>4H 1</t>
+  </si>
+  <si>
+    <t>4H 2</t>
+  </si>
+  <si>
+    <t>8H 1</t>
+  </si>
+  <si>
+    <t>8H 2</t>
+  </si>
+  <si>
+    <t>18H 1</t>
+  </si>
+  <si>
+    <t>*radius</t>
+  </si>
+  <si>
+    <t>erode</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>5,6</t>
   </si>
 </sst>
 </file>
@@ -281,10 +346,16 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -668,6 +739,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -731,21 +817,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -868,16 +939,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,121 +954,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1008,16 +1088,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1032,26 +1109,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1649,31 +1723,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
         <v>0.8</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="3">
         <v>0.8</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="3">
         <v>0.8</v>
       </c>
       <c r="G2">
@@ -1688,13 +1762,13 @@
       <c r="J2">
         <v>0.8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>0.8</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="5">
         <v>0.8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>0.8</v>
       </c>
       <c r="N2">
@@ -1702,16 +1776,16 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
       <c r="G3">
@@ -1726,13 +1800,13 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>3</v>
       </c>
       <c r="N3">
@@ -1740,16 +1814,16 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="17">
-        <v>4</v>
-      </c>
-      <c r="C4" s="17">
-        <v>5</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
         <v>4</v>
       </c>
       <c r="G4">
@@ -1764,13 +1838,13 @@
       <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" s="1">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2">
-        <v>4</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="K4" s="4">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
         <v>4</v>
       </c>
       <c r="N4">
@@ -1778,22 +1852,22 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="3">
         <v>0.003</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="3">
         <v>0.00425</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="3">
         <v>0.004</v>
       </c>
       <c r="E5">
         <v>0.0055</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.0045</v>
       </c>
       <c r="H5">
@@ -1805,13 +1879,13 @@
       <c r="J5">
         <v>0.003</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>0.003</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>0.003</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.004</v>
       </c>
       <c r="N5">
@@ -1819,16 +1893,16 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="G6">
@@ -1843,13 +1917,13 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
         <v>1</v>
       </c>
       <c r="N6">
@@ -1857,19 +1931,19 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="3">
         <v>301</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="3">
         <v>301</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="3">
         <v>161</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>321</v>
       </c>
       <c r="H7">
@@ -1881,13 +1955,13 @@
       <c r="J7">
         <v>281</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>301</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="5">
         <v>301</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>301</v>
       </c>
       <c r="N7">
@@ -1895,16 +1969,16 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="3">
         <v>-0.2</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="3">
         <v>-0.2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="3">
         <v>-0.4</v>
       </c>
       <c r="G8">
@@ -1919,13 +1993,13 @@
       <c r="J8">
         <v>-0.3</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>-0.2</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="5">
         <v>-0.2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>-0.2</v>
       </c>
       <c r="N8">
@@ -1933,16 +2007,16 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="3">
         <v>20000</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="3">
         <v>20000</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="3">
         <v>20000</v>
       </c>
       <c r="G9">
@@ -1957,13 +2031,13 @@
       <c r="J9">
         <v>20000</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>20000</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="5">
         <v>20000</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>20000</v>
       </c>
       <c r="N9">
@@ -1971,19 +2045,19 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="3">
         <v>11</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>11</v>
       </c>
       <c r="H10">
@@ -1995,13 +2069,13 @@
       <c r="J10">
         <v>10</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>10</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>10</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>10</v>
       </c>
       <c r="N10">
@@ -2009,16 +2083,16 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="3">
         <v>9</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="G11">
@@ -2033,13 +2107,13 @@
       <c r="J11">
         <v>8</v>
       </c>
-      <c r="K11" s="1">
-        <v>6</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="K11" s="4">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5">
         <v>7</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>7</v>
       </c>
       <c r="N11">
@@ -2047,16 +2121,16 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
-        <v>5</v>
-      </c>
-      <c r="C12" s="17">
-        <v>6</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="G12">
@@ -2071,13 +2145,13 @@
       <c r="J12">
         <v>8</v>
       </c>
-      <c r="K12" s="1">
-        <v>6</v>
-      </c>
-      <c r="L12" s="2">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="K12" s="4">
+        <v>6</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4">
         <v>5</v>
       </c>
       <c r="N12">
@@ -2085,19 +2159,19 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="3">
         <v>11</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>11</v>
       </c>
       <c r="H13">
@@ -2109,13 +2183,13 @@
       <c r="J13">
         <v>10</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>10</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="5">
         <v>10</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>10</v>
       </c>
       <c r="N13">
@@ -2123,16 +2197,16 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G14" t="s">
@@ -2147,13 +2221,13 @@
       <c r="J14" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N14" t="s">
@@ -2161,10 +2235,10 @@
       </c>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="19" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2178,10 +2252,10 @@
       <c r="I18">
         <v>0.8</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>0.8</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>0.8</v>
       </c>
       <c r="N18">
@@ -2214,7 +2288,7 @@
       <c r="W18">
         <v>0.8</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="4">
         <v>0.8</v>
       </c>
       <c r="Y18">
@@ -2235,7 +2309,7 @@
       <c r="AD18">
         <v>0.8</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AE18" s="5">
         <v>0.8</v>
       </c>
       <c r="AF18">
@@ -2258,10 +2332,10 @@
       <c r="I19">
         <v>3</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>3</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="5">
         <v>3</v>
       </c>
       <c r="N19">
@@ -2294,7 +2368,7 @@
       <c r="W19">
         <v>3</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="4">
         <v>3</v>
       </c>
       <c r="Y19">
@@ -2315,7 +2389,7 @@
       <c r="AD19">
         <v>3</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE19" s="5">
         <v>3</v>
       </c>
       <c r="AF19">
@@ -2338,10 +2412,10 @@
       <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20" s="1">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5">
         <v>5</v>
       </c>
       <c r="N20">
@@ -2374,7 +2448,7 @@
       <c r="W20">
         <v>4</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="4">
         <v>4</v>
       </c>
       <c r="Y20">
@@ -2395,7 +2469,7 @@
       <c r="AD20">
         <v>4</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE20" s="5">
         <v>4</v>
       </c>
       <c r="AF20">
@@ -2418,10 +2492,10 @@
       <c r="I21">
         <v>0.0045</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>0.0045</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="5">
         <v>0.00425</v>
       </c>
       <c r="N21">
@@ -2454,7 +2528,7 @@
       <c r="W21">
         <v>0.003</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="4">
         <v>0.003</v>
       </c>
       <c r="Y21">
@@ -2475,7 +2549,7 @@
       <c r="AD21">
         <v>0.005</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AE21" s="5">
         <v>0.006</v>
       </c>
       <c r="AF21">
@@ -2498,10 +2572,10 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
         <v>1</v>
       </c>
       <c r="N22">
@@ -2534,7 +2608,7 @@
       <c r="W22">
         <v>0.5</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="4">
         <v>1</v>
       </c>
       <c r="Y22">
@@ -2555,7 +2629,7 @@
       <c r="AD22">
         <v>1</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AE22" s="5">
         <v>1</v>
       </c>
       <c r="AF22">
@@ -2578,10 +2652,10 @@
       <c r="I23">
         <v>301</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>301</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="5">
         <v>301</v>
       </c>
       <c r="N23">
@@ -2614,7 +2688,7 @@
       <c r="W23">
         <v>151</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="4">
         <v>181</v>
       </c>
       <c r="Y23">
@@ -2635,7 +2709,7 @@
       <c r="AD23">
         <v>161</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AE23" s="5">
         <v>161</v>
       </c>
       <c r="AF23">
@@ -2658,10 +2732,10 @@
       <c r="I24">
         <v>-0.2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>-0.2</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="5">
         <v>-0.2</v>
       </c>
       <c r="N24">
@@ -2694,7 +2768,7 @@
       <c r="W24">
         <v>-0.3</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="4">
         <v>-0.3</v>
       </c>
       <c r="Y24">
@@ -2715,7 +2789,7 @@
       <c r="AD24">
         <v>-0.3</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE24" s="5">
         <v>-0.4</v>
       </c>
       <c r="AF24">
@@ -2738,10 +2812,10 @@
       <c r="I25">
         <v>20000</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>20000</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="5">
         <v>20000</v>
       </c>
       <c r="N25">
@@ -2774,7 +2848,7 @@
       <c r="W25">
         <v>20000</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="4">
         <v>20000</v>
       </c>
       <c r="Y25">
@@ -2795,7 +2869,7 @@
       <c r="AD25">
         <v>20000</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE25" s="5">
         <v>20000</v>
       </c>
       <c r="AF25">
@@ -2818,10 +2892,10 @@
       <c r="I26">
         <v>11</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>11</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="5">
         <v>11</v>
       </c>
       <c r="N26">
@@ -2854,7 +2928,7 @@
       <c r="W26">
         <v>9</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="4">
         <v>9</v>
       </c>
       <c r="Y26">
@@ -2875,7 +2949,7 @@
       <c r="AD26">
         <v>8</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE26" s="5">
         <v>8</v>
       </c>
       <c r="AF26">
@@ -2898,10 +2972,10 @@
       <c r="I27">
         <v>8</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>9</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="5">
         <v>9</v>
       </c>
       <c r="N27">
@@ -2934,7 +3008,7 @@
       <c r="W27">
         <v>3</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27" s="4">
         <v>2</v>
       </c>
       <c r="Y27">
@@ -2955,7 +3029,7 @@
       <c r="AD27">
         <v>2</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AE27" s="5">
         <v>2</v>
       </c>
       <c r="AF27">
@@ -2978,10 +3052,10 @@
       <c r="I28">
         <v>6</v>
       </c>
-      <c r="J28" s="1">
-        <v>6</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="J28" s="4">
+        <v>6</v>
+      </c>
+      <c r="K28" s="5">
         <v>6</v>
       </c>
       <c r="N28">
@@ -3014,7 +3088,7 @@
       <c r="W28">
         <v>6</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28" s="4">
         <v>6</v>
       </c>
       <c r="Y28">
@@ -3035,7 +3109,7 @@
       <c r="AD28">
         <v>3</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE28" s="5">
         <v>3</v>
       </c>
       <c r="AF28">
@@ -3058,10 +3132,10 @@
       <c r="I29">
         <v>11</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>11</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="5">
         <v>11</v>
       </c>
       <c r="N29">
@@ -3094,7 +3168,7 @@
       <c r="W29">
         <v>9</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29" s="4">
         <v>9</v>
       </c>
       <c r="Y29">
@@ -3115,7 +3189,7 @@
       <c r="AD29">
         <v>8</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AE29" s="5">
         <v>8</v>
       </c>
       <c r="AF29">
@@ -3138,10 +3212,10 @@
       <c r="I30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="N30" t="s">
@@ -3174,7 +3248,7 @@
       <c r="W30" t="s">
         <v>18</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="X30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Y30" t="s">
@@ -3195,7 +3269,7 @@
       <c r="AD30" t="s">
         <v>18</v>
       </c>
-      <c r="AE30" s="2" t="s">
+      <c r="AE30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AF30" t="s">
@@ -3219,8 +3293,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16:N24"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3249,7 +3323,7 @@
       <c r="C2">
         <v>7.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>5</v>
       </c>
       <c r="G2" t="s">
@@ -3266,21 +3340,21 @@
       <c r="C3">
         <v>0.006</v>
       </c>
-      <c r="D3">
-        <v>0.007</v>
+      <c r="D3" s="5">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
         <v>3.5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="I4" t="s">
@@ -3291,16 +3365,16 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="J5">
@@ -3308,16 +3382,16 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="J6">
@@ -3334,7 +3408,7 @@
       <c r="C7">
         <v>0.6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>0.6</v>
       </c>
       <c r="J7">
@@ -3351,7 +3425,7 @@
       <c r="C8">
         <v>0.3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.3</v>
       </c>
     </row>
@@ -3365,7 +3439,7 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3379,7 +3453,7 @@
       <c r="C10">
         <v>200000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>20000</v>
       </c>
     </row>
@@ -3387,7 +3461,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3406,7 +3480,7 @@
       <c r="C16">
         <v>4.5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>5.5</v>
       </c>
       <c r="E16">
@@ -3415,28 +3489,28 @@
       <c r="F16">
         <v>5.3</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>5.5</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="11">
         <v>5.5</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="11">
         <v>5.5</v>
       </c>
-      <c r="K16" s="10">
-        <v>5</v>
-      </c>
-      <c r="L16" s="11">
+      <c r="K16" s="12">
+        <v>5</v>
+      </c>
+      <c r="L16" s="13">
         <v>5.5</v>
       </c>
       <c r="M16">
         <v>6</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="14">
         <v>6</v>
       </c>
     </row>
@@ -3447,7 +3521,7 @@
       <c r="C17">
         <v>0.006</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>0.0055</v>
       </c>
       <c r="E17">
@@ -3456,28 +3530,28 @@
       <c r="F17">
         <v>0.006</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>0.006</v>
       </c>
       <c r="H17">
         <v>0.005</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="11">
         <v>0.0055</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="11">
         <v>0.0065</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="12">
         <v>0.007</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="15">
         <v>0.0065</v>
       </c>
       <c r="M17">
         <v>0.006</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="16">
         <v>0.0065</v>
       </c>
     </row>
@@ -3488,7 +3562,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>6</v>
       </c>
       <c r="E18">
@@ -3497,26 +3571,26 @@
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>6</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
-      <c r="I18" s="9">
-        <v>6</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10">
-        <v>5</v>
-      </c>
-      <c r="L18" s="13">
+      <c r="I18" s="11">
+        <v>6</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12">
+        <v>5</v>
+      </c>
+      <c r="L18" s="15">
         <v>6</v>
       </c>
       <c r="M18">
         <v>6</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="16">
         <v>6</v>
       </c>
     </row>
@@ -3524,7 +3598,7 @@
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>2</v>
       </c>
       <c r="E19">
@@ -3533,26 +3607,26 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>2</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10">
+      <c r="J19" s="11"/>
+      <c r="K19" s="12">
         <v>2</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="15">
         <v>2</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="16">
         <v>2</v>
       </c>
     </row>
@@ -3560,7 +3634,7 @@
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>1</v>
       </c>
       <c r="E20">
@@ -3569,26 +3643,26 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10">
-        <v>1</v>
-      </c>
-      <c r="L20" s="13">
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="15">
         <v>1</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="16">
         <v>1</v>
       </c>
     </row>
@@ -3599,7 +3673,7 @@
       <c r="C21">
         <v>0.6</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>0.6</v>
       </c>
       <c r="E21">
@@ -3608,28 +3682,28 @@
       <c r="F21">
         <v>0.2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>0.4</v>
       </c>
       <c r="H21">
         <v>0.1</v>
       </c>
-      <c r="I21" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="I21" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="11">
         <v>0.1</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="12">
         <v>0.4</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="15">
         <v>0.4</v>
       </c>
       <c r="M21">
         <v>0.5</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="16">
         <v>0.6</v>
       </c>
     </row>
@@ -3640,7 +3714,7 @@
       <c r="C22">
         <v>0.3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>0.3</v>
       </c>
       <c r="E22">
@@ -3649,28 +3723,28 @@
       <c r="F22">
         <v>0.3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>0.1</v>
       </c>
       <c r="H22">
         <v>0.5</v>
       </c>
-      <c r="I22" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="I22" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J22" s="11">
         <v>0.8</v>
       </c>
-      <c r="K22" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L22" s="13">
+      <c r="K22" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="15">
         <v>0.3</v>
       </c>
       <c r="M22">
         <v>0.4</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="16">
         <v>0.3</v>
       </c>
     </row>
@@ -3681,7 +3755,7 @@
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>6</v>
       </c>
       <c r="E23">
@@ -3690,28 +3764,28 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>2</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
-      <c r="I23" s="9">
-        <v>4</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10">
-        <v>4</v>
-      </c>
-      <c r="L23" s="13">
+      <c r="I23" s="11">
+        <v>4</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12">
+        <v>4</v>
+      </c>
+      <c r="L23" s="15">
         <v>4</v>
       </c>
       <c r="M23">
         <v>5</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="16">
         <v>6</v>
       </c>
     </row>
@@ -3722,7 +3796,7 @@
       <c r="C24">
         <v>60000</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <v>60000</v>
       </c>
       <c r="E24">
@@ -3731,33 +3805,33 @@
       <c r="F24">
         <v>60000</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="10">
         <v>70000</v>
       </c>
       <c r="H24">
         <v>30000</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="11">
         <v>60000</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="11">
         <v>60000</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="12">
         <v>60000</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="17">
         <v>70000</v>
       </c>
       <c r="M24">
         <v>30000</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="18">
         <v>30000</v>
       </c>
     </row>
     <row r="25" spans="9:9">
-      <c r="I25" s="9"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -3769,7 +3843,7 @@
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>7.5</v>
       </c>
       <c r="E26">
@@ -3783,7 +3857,7 @@
       <c r="C27">
         <v>0.005</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>0.006</v>
       </c>
       <c r="E27">
@@ -3797,7 +3871,7 @@
       <c r="C28">
         <v>6</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28">
@@ -3811,7 +3885,7 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>2</v>
       </c>
       <c r="E29">
@@ -3825,7 +3899,7 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>1</v>
       </c>
       <c r="E30">
@@ -3839,7 +3913,7 @@
       <c r="C31">
         <v>0.6</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>0.6</v>
       </c>
       <c r="E31">
@@ -3853,7 +3927,7 @@
       <c r="C32">
         <v>0.3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>0.3</v>
       </c>
       <c r="E32">
@@ -3867,7 +3941,7 @@
       <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>6</v>
       </c>
       <c r="E33">
@@ -3881,7 +3955,7 @@
       <c r="C34">
         <v>40000</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>200000</v>
       </c>
       <c r="E34">
@@ -3889,19 +3963,14 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35">
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="12:12">
-      <c r="L36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3926,17 +3995,23 @@
       <c r="I37">
         <v>5</v>
       </c>
-      <c r="J37" s="1">
-        <v>5</v>
-      </c>
-      <c r="K37" s="1">
-        <v>5</v>
-      </c>
-      <c r="L37" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="J37" s="4">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -3958,17 +4033,23 @@
       <c r="I38">
         <v>0.006</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="4">
         <v>0.006</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="4">
         <v>0.008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="4">
         <v>0.007</v>
       </c>
-    </row>
-    <row r="39" spans="2:12">
+      <c r="M38">
+        <v>0.01</v>
+      </c>
+      <c r="N38">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39" t="s">
         <v>29</v>
       </c>
@@ -3987,17 +4068,23 @@
       <c r="I39">
         <v>3</v>
       </c>
-      <c r="J39" s="1">
-        <v>4</v>
-      </c>
-      <c r="K39" s="1">
-        <v>4</v>
-      </c>
-      <c r="L39" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
+      <c r="J39" s="4">
+        <v>4</v>
+      </c>
+      <c r="K39" s="4">
+        <v>4</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -4016,17 +4103,23 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" t="s">
         <v>31</v>
       </c>
@@ -4045,17 +4138,23 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
       <c r="B42" t="s">
         <v>32</v>
       </c>
@@ -4077,17 +4176,23 @@
       <c r="I42">
         <v>0.6</v>
       </c>
-      <c r="J42" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="J42" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M42">
+        <v>0.6</v>
+      </c>
+      <c r="N42">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43" t="s">
         <v>33</v>
       </c>
@@ -4109,17 +4214,23 @@
       <c r="I43">
         <v>0.3</v>
       </c>
-      <c r="J43" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12">
+      <c r="J43" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M43">
+        <v>0.3</v>
+      </c>
+      <c r="N43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
       <c r="B44" t="s">
         <v>34</v>
       </c>
@@ -4141,17 +4252,23 @@
       <c r="I44">
         <v>6</v>
       </c>
-      <c r="J44" s="1">
-        <v>6</v>
-      </c>
-      <c r="K44" s="1">
-        <v>6</v>
-      </c>
-      <c r="L44" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
+      <c r="J44" s="4">
+        <v>6</v>
+      </c>
+      <c r="K44" s="4">
+        <v>6</v>
+      </c>
+      <c r="L44" s="4">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
       <c r="B45" t="s">
         <v>35</v>
       </c>
@@ -4173,17 +4290,23 @@
       <c r="I45">
         <v>70000</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="4">
         <v>20000</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="4">
         <v>20000</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="46" spans="4:12">
+      <c r="M45">
+        <v>20000</v>
+      </c>
+      <c r="N45">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14">
       <c r="D46">
         <v>4</v>
       </c>
@@ -4199,19 +4322,25 @@
       <c r="I46">
         <v>3</v>
       </c>
-      <c r="J46" s="1">
-        <v>4</v>
-      </c>
-      <c r="K46" s="1">
-        <v>4</v>
-      </c>
-      <c r="L46" s="2">
-        <v>4</v>
+      <c r="J46" s="4">
+        <v>4</v>
+      </c>
+      <c r="K46" s="4">
+        <v>4</v>
+      </c>
+      <c r="L46" s="4">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="11:12">
-      <c r="K47" s="1"/>
-      <c r="L47" s="2"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4225,8 +4354,8 @@
   <sheetPr/>
   <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4237,46 +4366,46 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -4286,47 +4415,47 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
         <v>5</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2">
-        <v>6</v>
-      </c>
-      <c r="L2" s="2">
-        <v>6</v>
-      </c>
-      <c r="M2" s="2">
-        <v>6</v>
-      </c>
-      <c r="N2" s="2">
-        <v>6</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="I2" s="5">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5">
+        <v>6</v>
+      </c>
+      <c r="M2" s="5">
+        <v>6</v>
+      </c>
+      <c r="N2" s="5">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5">
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2">
         <v>6</v>
@@ -4390,147 +4519,147 @@
       <c r="B3">
         <v>0.0055</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>0.005</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>0.004</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>0.003</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>0.03</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>0.01</v>
       </c>
       <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
       </c>
       <c r="R3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
         <v>60</v>
       </c>
-      <c r="S3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" t="s">
-        <v>65</v>
-      </c>
       <c r="AH3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
         <v>5</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>8</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>8</v>
       </c>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>4</v>
-      </c>
-      <c r="M4" s="2">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5">
         <v>3</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5">
         <v>4</v>
       </c>
       <c r="Q4" t="s">
@@ -4589,46 +4718,46 @@
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
         <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
@@ -4687,46 +4816,46 @@
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
@@ -4788,43 +4917,43 @@
       <c r="B7">
         <v>0.6</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.6</v>
       </c>
       <c r="H7">
         <v>0.6</v>
       </c>
-      <c r="I7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="I7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O7" s="5">
         <v>0.9</v>
       </c>
       <c r="Q7" t="s">
@@ -4892,43 +5021,43 @@
       <c r="B8">
         <v>0.3</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.3</v>
       </c>
       <c r="H8">
         <v>0.3</v>
       </c>
-      <c r="I8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="I8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="5">
         <v>0.6</v>
       </c>
       <c r="Q8" t="s">
@@ -4996,43 +5125,43 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
         <v>6</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
-        <v>6</v>
-      </c>
-      <c r="J9" s="2">
-        <v>6</v>
-      </c>
-      <c r="K9" s="2">
-        <v>6</v>
-      </c>
-      <c r="L9" s="2">
-        <v>6</v>
-      </c>
-      <c r="M9" s="2">
-        <v>6</v>
-      </c>
-      <c r="N9" s="2">
-        <v>6</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="I9" s="5">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5">
+        <v>6</v>
+      </c>
+      <c r="L9" s="5">
+        <v>6</v>
+      </c>
+      <c r="M9" s="5">
+        <v>6</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5">
         <v>12</v>
       </c>
       <c r="Q9" t="s">
@@ -5100,43 +5229,43 @@
       <c r="B10">
         <v>20000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>20000</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>10000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>10000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>10000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>20000</v>
       </c>
       <c r="H10">
         <v>5000</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>10000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>60000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>30000</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>30000</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5">
         <v>10000</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="5">
         <v>10000</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="5">
         <v>20000</v>
       </c>
       <c r="Q10" t="s">
@@ -5199,39 +5328,39 @@
     </row>
     <row r="11" spans="3:35">
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5">
         <v>4</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>8</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
         <v>8</v>
       </c>
-      <c r="K11" s="2">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2">
-        <v>4</v>
-      </c>
-      <c r="M11" s="2">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="K11" s="5">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5">
         <v>3</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="5">
         <v>4</v>
       </c>
       <c r="Q11" t="s">
@@ -5294,27 +5423,32 @@
     </row>
     <row r="12" spans="6:15">
       <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="O12" t="s">
         <v>67</v>
       </c>
-      <c r="O12" t="s">
-        <v>68</v>
+    </row>
+    <row r="13" spans="9:9">
+      <c r="I13" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -5325,10 +5459,10 @@
       <c r="N15">
         <v>6</v>
       </c>
-      <c r="O15" s="1">
-        <v>6</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="O15" s="4">
+        <v>6</v>
+      </c>
+      <c r="P15" s="4">
         <v>6</v>
       </c>
     </row>
@@ -5336,61 +5470,61 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>5</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="1">
+        <v>42</v>
+      </c>
+      <c r="I16" s="4">
         <v>5</v>
       </c>
       <c r="K16" t="s">
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="R16" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16" s="1">
+        <v>70</v>
+      </c>
+      <c r="S16" s="4">
         <v>6</v>
       </c>
       <c r="T16">
         <v>6</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="4">
         <v>6</v>
       </c>
       <c r="V16">
         <v>6</v>
       </c>
       <c r="X16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y16">
         <v>6</v>
       </c>
-      <c r="Z16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="1">
+      <c r="Z16" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="4">
         <v>6</v>
       </c>
     </row>
@@ -5398,13 +5532,13 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>0.005</v>
       </c>
       <c r="C17">
         <v>0.006</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>0.009</v>
       </c>
       <c r="K17" t="s">
@@ -5413,45 +5547,45 @@
       <c r="N17">
         <v>5</v>
       </c>
-      <c r="O17" s="1">
-        <v>6</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="O17" s="4">
+        <v>6</v>
+      </c>
+      <c r="P17" s="4">
         <v>7</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" t="s">
         <v>57</v>
       </c>
-      <c r="T17" t="s">
-        <v>61</v>
-      </c>
-      <c r="U17" s="1" t="s">
+      <c r="Z17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA17" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="V17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>5</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>5</v>
       </c>
       <c r="K18" t="s">
@@ -5460,19 +5594,19 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
         <v>4</v>
       </c>
       <c r="T18">
         <v>5</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="4">
         <v>5</v>
       </c>
       <c r="V18">
@@ -5481,10 +5615,10 @@
       <c r="Y18">
         <v>5</v>
       </c>
-      <c r="Z18" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="1">
+      <c r="Z18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="4">
         <v>3</v>
       </c>
     </row>
@@ -5492,13 +5626,13 @@
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>2</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>3</v>
       </c>
       <c r="K19" t="s">
@@ -5507,19 +5641,19 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
         <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="4">
         <v>1</v>
       </c>
       <c r="V19">
@@ -5528,10 +5662,10 @@
       <c r="Y19">
         <v>1</v>
       </c>
-      <c r="Z19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1">
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5539,13 +5673,13 @@
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>1</v>
       </c>
       <c r="K20" t="s">
@@ -5560,19 +5694,19 @@
       <c r="N20">
         <v>0.6</v>
       </c>
-      <c r="O20" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="O20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S20" s="4">
         <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="4">
         <v>1</v>
       </c>
       <c r="V20">
@@ -5581,10 +5715,10 @@
       <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Z20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1">
+      <c r="Z20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5592,13 +5726,13 @@
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>0.6</v>
       </c>
       <c r="C21">
         <v>0.6</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>0.6</v>
       </c>
       <c r="K21" t="s">
@@ -5613,19 +5747,19 @@
       <c r="N21">
         <v>0.3</v>
       </c>
-      <c r="O21" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="O21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S21" s="4">
         <v>0.6</v>
       </c>
       <c r="T21">
         <v>0.6</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="4">
         <v>0.6</v>
       </c>
       <c r="V21">
@@ -5634,10 +5768,10 @@
       <c r="Y21">
         <v>0.6</v>
       </c>
-      <c r="Z21" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="AA21" s="1">
+      <c r="Z21" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AA21" s="4">
         <v>0.6</v>
       </c>
     </row>
@@ -5645,13 +5779,13 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>0.3</v>
       </c>
       <c r="C22">
         <v>0.3</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>0.3</v>
       </c>
       <c r="K22" t="s">
@@ -5666,19 +5800,19 @@
       <c r="N22">
         <v>6</v>
       </c>
-      <c r="O22" s="1">
-        <v>6</v>
-      </c>
-      <c r="P22" s="1">
-        <v>6</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="O22" s="4">
+        <v>6</v>
+      </c>
+      <c r="P22" s="4">
+        <v>6</v>
+      </c>
+      <c r="S22" s="4">
         <v>0.3</v>
       </c>
       <c r="T22">
         <v>0.3</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="4">
         <v>0.3</v>
       </c>
       <c r="V22">
@@ -5687,10 +5821,10 @@
       <c r="Y22">
         <v>0.3</v>
       </c>
-      <c r="Z22" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AA22" s="1">
+      <c r="Z22" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AA22" s="4">
         <v>0.3</v>
       </c>
     </row>
@@ -5698,13 +5832,13 @@
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>6</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>6</v>
       </c>
       <c r="K23" t="s">
@@ -5719,19 +5853,19 @@
       <c r="N23">
         <v>10000</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>10000</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>5000</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>6</v>
       </c>
       <c r="T23">
         <v>6</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="4">
         <v>6</v>
       </c>
       <c r="V23">
@@ -5740,10 +5874,10 @@
       <c r="Y23">
         <v>6</v>
       </c>
-      <c r="Z23" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA23" s="1">
+      <c r="Z23" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="4">
         <v>6</v>
       </c>
     </row>
@@ -5751,13 +5885,13 @@
       <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>20000</v>
       </c>
       <c r="C24">
         <v>20000</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>20000</v>
       </c>
       <c r="K24" t="s">
@@ -5772,19 +5906,19 @@
       <c r="N24">
         <v>5</v>
       </c>
-      <c r="O24" s="1">
-        <v>6</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="O24" s="4">
+        <v>6</v>
+      </c>
+      <c r="P24" s="4">
         <v>7</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>30000</v>
       </c>
       <c r="T24">
         <v>30000</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="4">
         <v>10000</v>
       </c>
       <c r="V24">
@@ -5793,26 +5927,26 @@
       <c r="Y24">
         <v>10000</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24" s="4">
         <v>10000</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="2:27">
-      <c r="B25" s="1"/>
-      <c r="I25" s="1">
-        <v>4</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="S25" s="1">
+      <c r="B25" s="4"/>
+      <c r="I25" s="4">
+        <v>4</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="S25" s="4">
         <v>4</v>
       </c>
       <c r="T25">
         <v>5</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="4">
         <v>5</v>
       </c>
       <c r="V25">
@@ -5821,19 +5955,19 @@
       <c r="Y25">
         <v>5</v>
       </c>
-      <c r="Z25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="1">
+      <c r="Z25" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -5850,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -5859,25 +5993,25 @@
         <v>6</v>
       </c>
       <c r="L27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" t="s">
         <v>75</v>
       </c>
-      <c r="M27">
-        <v>6</v>
-      </c>
-      <c r="N27">
-        <v>6</v>
-      </c>
-      <c r="O27">
-        <v>6</v>
-      </c>
-      <c r="P27" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" t="s">
-        <v>76</v>
-      </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>6</v>
       </c>
       <c r="T27">
@@ -5893,9 +6027,9 @@
         <v>6</v>
       </c>
       <c r="Y27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z27" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z27" s="4">
         <v>6</v>
       </c>
       <c r="AA27">
@@ -5928,56 +6062,56 @@
         <v>0.02</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="S28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28" t="s">
+        <v>72</v>
+      </c>
+      <c r="V28" t="s">
+        <v>72</v>
+      </c>
+      <c r="W28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC28" t="s">
         <v>57</v>
       </c>
-      <c r="M28" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" t="s">
-        <v>55</v>
-      </c>
-      <c r="O28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="S28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" t="s">
-        <v>55</v>
-      </c>
-      <c r="U28" t="s">
-        <v>73</v>
-      </c>
-      <c r="V28" t="s">
-        <v>73</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="AD28" t="s">
         <v>60</v>
       </c>
-      <c r="Z28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>61</v>
-      </c>
       <c r="AE28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -6008,11 +6142,11 @@
       <c r="O29">
         <v>5</v>
       </c>
-      <c r="P29" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="S29" s="1">
+      <c r="P29" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="S29" s="4">
         <v>5</v>
       </c>
       <c r="T29">
@@ -6027,7 +6161,7 @@
       <c r="W29">
         <v>4</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29" s="4">
         <v>3</v>
       </c>
       <c r="AA29">
@@ -6074,11 +6208,11 @@
       <c r="O30">
         <v>1</v>
       </c>
-      <c r="P30" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="S30" s="1">
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="S30" s="4">
         <v>1</v>
       </c>
       <c r="T30">
@@ -6093,7 +6227,7 @@
       <c r="W30">
         <v>1</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Z30" s="4">
         <v>1</v>
       </c>
       <c r="AA30">
@@ -6140,11 +6274,11 @@
       <c r="O31">
         <v>1</v>
       </c>
-      <c r="P31" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="S31" s="1">
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="S31" s="4">
         <v>1</v>
       </c>
       <c r="T31">
@@ -6159,7 +6293,7 @@
       <c r="W31">
         <v>1</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="Z31" s="4">
         <v>1</v>
       </c>
       <c r="AA31">
@@ -6206,11 +6340,11 @@
       <c r="O32">
         <v>0.6</v>
       </c>
-      <c r="P32" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q32" s="1"/>
-      <c r="S32" s="1">
+      <c r="P32" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="S32" s="4">
         <v>0.6</v>
       </c>
       <c r="T32">
@@ -6225,7 +6359,7 @@
       <c r="W32">
         <v>0.6</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="Z32" s="4">
         <v>0.6</v>
       </c>
       <c r="AA32">
@@ -6272,11 +6406,11 @@
       <c r="O33">
         <v>0.3</v>
       </c>
-      <c r="P33" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="S33" s="1">
+      <c r="P33" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="S33" s="4">
         <v>0.3</v>
       </c>
       <c r="T33">
@@ -6291,7 +6425,7 @@
       <c r="W33">
         <v>0.3</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="Z33" s="4">
         <v>0.3</v>
       </c>
       <c r="AA33">
@@ -6338,11 +6472,11 @@
       <c r="O34">
         <v>6</v>
       </c>
-      <c r="P34" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="S34" s="1">
+      <c r="P34" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="S34" s="4">
         <v>6</v>
       </c>
       <c r="T34">
@@ -6357,7 +6491,7 @@
       <c r="W34">
         <v>6</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Z34" s="4">
         <v>6</v>
       </c>
       <c r="AA34">
@@ -6404,11 +6538,11 @@
       <c r="O35">
         <v>20000</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="4">
         <v>30000</v>
       </c>
-      <c r="Q35" s="1"/>
-      <c r="S35" s="1">
+      <c r="Q35" s="4"/>
+      <c r="S35" s="4">
         <v>30000</v>
       </c>
       <c r="T35">
@@ -6423,7 +6557,7 @@
       <c r="W35">
         <v>30000</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="Z35" s="4">
         <v>10000</v>
       </c>
       <c r="AA35">
@@ -6467,11 +6601,11 @@
       <c r="O36">
         <v>5</v>
       </c>
-      <c r="P36" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="S36" s="1">
+      <c r="P36" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="S36" s="4">
         <v>5</v>
       </c>
       <c r="T36">
@@ -6486,7 +6620,7 @@
       <c r="W36">
         <v>4</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="Z36" s="4">
         <v>3</v>
       </c>
       <c r="AA36">
@@ -6507,12 +6641,12 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
         <v>78</v>
       </c>
-      <c r="H38" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="I38" s="5">
         <v>6</v>
       </c>
     </row>
@@ -6520,27 +6654,27 @@
       <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>3</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="5">
         <v>3</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>55</v>
+      <c r="I39" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>0.005</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="5">
         <v>0.03</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="5">
         <v>8</v>
       </c>
     </row>
@@ -6548,11 +6682,11 @@
       <c r="A41" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="7">
         <v>0</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="I41" s="2">
+      <c r="C41" s="6"/>
+      <c r="I41" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6560,11 +6694,11 @@
       <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="I42" s="2">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="I42" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6572,11 +6706,11 @@
       <c r="A43" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="6">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="I43" s="2">
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="I43" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -6584,13 +6718,13 @@
       <c r="A44" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="B44" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I44" s="5">
         <v>0.3</v>
       </c>
     </row>
@@ -6598,13 +6732,13 @@
       <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="B45" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I45" s="5">
         <v>6</v>
       </c>
     </row>
@@ -6612,13 +6746,13 @@
       <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="5">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2">
-        <v>6</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="B46" s="4">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5">
+        <v>6</v>
+      </c>
+      <c r="I46" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -6626,20 +6760,372 @@
       <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>5000</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="5">
         <v>10000</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="5"/>
-      <c r="C48" s="2">
-        <v>4</v>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.7</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>0.015</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.015</v>
+      </c>
+      <c r="E4">
+        <v>0.005</v>
+      </c>
+      <c r="F4">
+        <v>0.005</v>
+      </c>
+      <c r="G4">
+        <v>0.004</v>
+      </c>
+      <c r="H4">
+        <v>0.003</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.007</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -6464,7 +6464,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6811,7 +6811,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t xml:space="preserve">T11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12</t>
   </si>
   <si>
     <t xml:space="preserve">smooth 1</t>
@@ -453,7 +456,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,7 +478,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -493,13 +496,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
-        <bgColor rgb="FFB2B2B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -586,7 +583,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -679,11 +676,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,10 +689,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -732,7 +725,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
@@ -6461,10 +6454,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6509,6 +6502,9 @@
       <c r="L1" s="22" t="s">
         <v>112</v>
       </c>
+      <c r="M1" s="23" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -6547,10 +6543,13 @@
       <c r="L2" s="22" t="n">
         <v>0.5</v>
       </c>
+      <c r="M2" s="22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -6583,6 +6582,9 @@
         <v>1</v>
       </c>
       <c r="L3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6623,10 +6625,13 @@
       <c r="L4" s="22" t="n">
         <v>0.5</v>
       </c>
+      <c r="M4" s="22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1.5</v>
@@ -6659,6 +6664,9 @@
         <v>1.5</v>
       </c>
       <c r="L5" s="22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M5" s="22" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -6669,34 +6677,37 @@
       <c r="B6" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="24" t="n">
         <v>0.005</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="24" t="n">
         <v>0.003</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="24" t="n">
         <v>0.002</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="24" t="n">
         <v>0.002</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="24" t="n">
         <v>0.002</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="24" t="n">
         <v>0.002</v>
       </c>
-      <c r="I6" s="23" t="n">
+      <c r="I6" s="24" t="n">
         <v>0.002</v>
       </c>
-      <c r="J6" s="23" t="n">
+      <c r="J6" s="24" t="n">
         <v>0.002</v>
       </c>
       <c r="K6" s="22" t="n">
         <v>0.002</v>
       </c>
       <c r="L6" s="22" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M6" s="22" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -6737,6 +6748,9 @@
       <c r="L7" s="22" t="n">
         <v>0.5</v>
       </c>
+      <c r="M7" s="22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -6775,48 +6789,54 @@
       <c r="L8" s="22" t="n">
         <v>0.7</v>
       </c>
+      <c r="M8" s="22" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="23" t="n">
+      <c r="C9" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="I9" s="23" t="n">
+      <c r="I9" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="J9" s="23" t="n">
+      <c r="J9" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="K9" s="24" t="n">
+      <c r="K9" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="L9" s="24" t="n">
+      <c r="L9" s="23" t="n">
         <v>10</v>
+      </c>
+      <c r="M9" s="23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1.2</v>
@@ -6851,10 +6871,13 @@
       <c r="L10" s="22" t="n">
         <v>1.2</v>
       </c>
+      <c r="M10" s="22" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="25" t="n">
         <v>0.6</v>
@@ -6887,12 +6910,15 @@
         <v>0.6</v>
       </c>
       <c r="L11" s="22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="22" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10000</v>
@@ -6900,22 +6926,22 @@
       <c r="C12" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="24" t="n">
         <v>50000</v>
       </c>
-      <c r="E12" s="23" t="n">
+      <c r="E12" s="24" t="n">
         <v>50000</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="24" t="n">
         <v>10000</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="24" t="n">
         <v>10000</v>
       </c>
-      <c r="H12" s="23" t="n">
+      <c r="H12" s="24" t="n">
         <v>5000</v>
       </c>
-      <c r="I12" s="23" t="n">
+      <c r="I12" s="24" t="n">
         <v>5000</v>
       </c>
       <c r="J12" s="21" t="n">
@@ -6927,36 +6953,40 @@
       <c r="L12" s="22" t="n">
         <v>5000</v>
       </c>
+      <c r="M12" s="22" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>121</v>
+      <c r="A14" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="B14" s="21" t="n">
         <v>1</v>
@@ -6985,15 +7015,18 @@
       <c r="J14" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="24" t="n">
+      <c r="K14" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="23" t="n">
         <v>12</v>
       </c>
+      <c r="M14" s="23" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>69</v>
       </c>
     </row>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="132">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -369,6 +369,24 @@
     <t xml:space="preserve">T12</t>
   </si>
   <si>
+    <t xml:space="preserve">T13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUT 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">smooth 1</t>
   </si>
   <si>
@@ -394,6 +412,15 @@
   </si>
   <si>
     <t xml:space="preserve">cell_min_radius_vox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0H-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUT 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0H-3</t>
   </si>
 </sst>
 </file>
@@ -456,7 +483,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,7 +493,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -478,7 +505,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
     <fill>
@@ -495,8 +522,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,121 +622,157 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -725,9 +800,9 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -783,9 +858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>473760</xdr:colOff>
+      <xdr:colOff>473040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -799,7 +874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6180480" y="130320"/>
-          <a:ext cx="7986960" cy="266400"/>
+          <a:ext cx="7986240" cy="265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,1567 +1075,1567 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3" t="n">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" s="0" t="n">
+      <c r="M4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.00425</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.004</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.0055</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0.0045</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.0035</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0.003</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>0.0035</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="0" t="n">
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>161</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>321</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="1" t="n">
         <v>301</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>301</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>301</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>-0.2</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>-0.2</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>-0.1</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>-0.1</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>-0.15</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="1" t="n">
         <v>-0.2</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>-0.2</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="1" t="n">
         <v>-0.2</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>-0.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="1" t="n">
         <v>20000</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="B12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="1" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="M12" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" s="0" t="n">
+      <c r="M12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J18" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="W18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="X18" s="3" t="n">
+      <c r="X18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Y18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="Z18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AA18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AB18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AC18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AD18" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="AE18" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AF18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AG18" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AH18" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="W19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X19" s="3" t="n">
+      <c r="X19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Y19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="Z19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AA19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AB19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AC19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AD19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AE19" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AF19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AG19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AH19" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3" t="n">
+      <c r="H20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>5</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="0" t="n">
+      <c r="N20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AE20" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AF20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AF20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>0.0045</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="1" t="n">
         <v>0.0045</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0.00425</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U21" s="1" t="n">
         <v>0.0035</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="W21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Y21" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="Z21" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AA21" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AB21" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AC21" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AD21" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AE21" s="4" t="n">
         <v>0.006</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AF21" s="1" t="n">
         <v>0.0055</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AG21" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AH21" s="1" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="n">
+      <c r="G22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" s="0" t="n">
+      <c r="N22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="U22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="0" t="n">
+      <c r="U22" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AE22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AF22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AF22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="1" t="n">
         <v>301</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>301</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="U23" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="W23" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="X23" s="3" t="n">
+      <c r="X23" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Y23" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="Z23" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AA23" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AB23" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AC23" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AD23" s="1" t="n">
         <v>161</v>
       </c>
       <c r="AE23" s="4" t="n">
         <v>161</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AF23" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AG23" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AH23" s="1" t="n">
         <v>161</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>-0.2</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>-0.2</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>-0.2</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="J24" s="1" t="n">
         <v>-0.2</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>-0.2</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="1" t="n">
         <v>-0.2</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24" s="1" t="n">
         <v>-0.2</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="1" t="n">
         <v>-0.2</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24" s="1" t="n">
         <v>-0.2</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24" s="1" t="n">
         <v>-0.35</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="1" t="n">
         <v>-0.4</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="W24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="X24" s="3" t="n">
+      <c r="X24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Y24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="Z24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AA24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AB24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AC24" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AD24" s="1" t="n">
         <v>-0.3</v>
       </c>
       <c r="AE24" s="4" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AF24" s="1" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AG24" s="1" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AH24" s="1" t="n">
         <v>-0.4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="J25" s="1" t="n">
         <v>20000</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="S25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="W25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="X25" s="3" t="n">
+      <c r="X25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Y25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="Z25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AA25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AB25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AC25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AD25" s="1" t="n">
         <v>20000</v>
       </c>
       <c r="AE25" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AF25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AG25" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AH25" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="1" t="n">
         <v>11</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="T26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="W26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="X26" s="3" t="n">
+      <c r="X26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Y26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="Z26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AA26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AB26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AC26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AD26" s="1" t="n">
         <v>8</v>
       </c>
       <c r="AE26" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AF26" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AG26" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AH26" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="1" t="n">
         <v>9</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="O27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P27" s="0" t="n">
+      <c r="O27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="T27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="W27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X27" s="3" t="n">
+      <c r="X27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Y27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="Z27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AA27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AB27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AB27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AD27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AE27" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AF27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AG27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AH27" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" s="3" t="n">
+      <c r="H28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>6</v>
       </c>
       <c r="K28" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="N28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P28" s="0" t="n">
+      <c r="N28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="V28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="W28" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X28" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y28" s="0" t="n">
+      <c r="S28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="Z28" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AA28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AB28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AB28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AE28" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AF28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AF28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="1" t="n">
         <v>11</v>
       </c>
       <c r="K29" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="Q29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="T29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="U29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="W29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="X29" s="3" t="n">
+      <c r="X29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Y29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="Z29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AA29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AB29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AC29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AD29" s="1" t="n">
         <v>8</v>
       </c>
       <c r="AE29" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AF29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AG29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AH29" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="0" t="s">
+      <c r="O30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q30" s="0" t="s">
+      <c r="Q30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="R30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S30" s="0" t="s">
+      <c r="S30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="0" t="s">
+      <c r="T30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U30" s="0" t="s">
+      <c r="U30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V30" s="0" t="s">
+      <c r="V30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W30" s="0" t="s">
+      <c r="W30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="X30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y30" s="0" t="s">
+      <c r="Y30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z30" s="0" t="s">
+      <c r="Z30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA30" s="0" t="s">
+      <c r="AA30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB30" s="0" t="s">
+      <c r="AB30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC30" s="0" t="s">
+      <c r="AC30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD30" s="0" t="s">
+      <c r="AD30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AE30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AF30" s="0" t="s">
+      <c r="AF30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AG30" s="0" t="s">
+      <c r="AG30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH30" s="0" t="s">
+      <c r="AH30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2588,45 +2663,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>7.5</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0065</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.006</v>
       </c>
       <c r="D3" s="4" t="n">
@@ -2646,10 +2721,10 @@
       <c r="D4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -2666,7 +2741,7 @@
       <c r="D5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2683,35 +2758,35 @@
       <c r="D6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>0.0065</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="D8" s="4" t="n">
@@ -2719,13 +2794,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="n">
@@ -2733,13 +2808,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>200000</v>
       </c>
       <c r="D10" s="4" t="n">
@@ -2747,7 +2822,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="n">
@@ -2755,33 +2830,33 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N15" s="0" t="s">
+      <c r="N15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>4.5</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>5.3</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>5.5</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I16" s="8" t="n">
@@ -2790,39 +2865,39 @@
       <c r="J16" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="K16" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" s="10" t="n">
+      <c r="K16" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="9" t="n">
         <v>5.5</v>
       </c>
-      <c r="M16" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" s="11" t="n">
+      <c r="M16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="10" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.006</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>0.0055</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>0.006</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>0.006</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="I17" s="8" t="n">
@@ -2831,150 +2906,150 @@
       <c r="J17" s="8" t="n">
         <v>0.0065</v>
       </c>
-      <c r="K17" s="9" t="n">
+      <c r="K17" s="8" t="n">
         <v>0.007</v>
       </c>
-      <c r="L17" s="12" t="n">
+      <c r="L17" s="11" t="n">
         <v>0.0065</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="N17" s="13" t="n">
+      <c r="N17" s="12" t="n">
         <v>0.0065</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I18" s="8" t="n">
         <v>6</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N18" s="13" t="n">
+      <c r="K18" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="8" t="n">
         <v>2</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="9" t="n">
+      <c r="K19" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="L19" s="12" t="n">
+      <c r="L19" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N19" s="13" t="n">
+      <c r="N19" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="8" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="13" t="n">
+      <c r="K20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F21" s="0" t="n">
+      <c r="E21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="I21" s="8" t="n">
@@ -2983,39 +3058,39 @@
       <c r="J21" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="K21" s="9" t="n">
+      <c r="K21" s="8" t="n">
         <v>0.4</v>
       </c>
-      <c r="L21" s="12" t="n">
+      <c r="L21" s="11" t="n">
         <v>0.4</v>
       </c>
-      <c r="M21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N21" s="13" t="n">
+      <c r="M21" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="12" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="E22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="I22" s="8" t="n">
@@ -3024,39 +3099,39 @@
       <c r="J22" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="K22" s="9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M22" s="0" t="n">
+      <c r="K22" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M22" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="N22" s="13" t="n">
+      <c r="N22" s="12" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" s="0" t="n">
+      <c r="E23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="8" t="n">
@@ -3065,39 +3140,39 @@
       <c r="J23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" s="13" t="n">
+      <c r="K23" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>60000</v>
       </c>
       <c r="D24" s="7" t="n">
         <v>60000</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>60000</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>60000</v>
       </c>
-      <c r="G24" s="14" t="n">
+      <c r="G24" s="13" t="n">
         <v>70000</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>30000</v>
       </c>
       <c r="I24" s="8" t="n">
@@ -3106,16 +3181,16 @@
       <c r="J24" s="8" t="n">
         <v>60000</v>
       </c>
-      <c r="K24" s="9" t="n">
+      <c r="K24" s="8" t="n">
         <v>60000</v>
       </c>
-      <c r="L24" s="15" t="n">
+      <c r="L24" s="14" t="n">
         <v>70000</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="N24" s="16" t="n">
+      <c r="N24" s="15" t="n">
         <v>30000</v>
       </c>
     </row>
@@ -3123,131 +3198,131 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>7.5</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>0.006</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>0.006</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>40000</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>200000</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -3255,381 +3330,381 @@
       <c r="D35" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" s="0" t="n">
+      <c r="E37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <v>0.0065</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="J38" s="3" t="n">
+      <c r="J38" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="K38" s="3" t="n">
+      <c r="K38" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="L38" s="3" t="n">
+      <c r="L38" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="M38" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="N38" s="1" t="n">
         <v>0.009</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
+      <c r="G39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J39" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L39" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" s="0" t="n">
+      <c r="J39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" s="0" t="n">
+      <c r="E40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="0" t="n">
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L42" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N42" s="0" t="n">
+      <c r="D42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N42" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L43" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N43" s="0" t="n">
+      <c r="D43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N43" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L44" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N44" s="0" t="n">
+      <c r="D44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N44" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>200000</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>200000</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>200000</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="1" t="n">
         <v>70000</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>70000</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="1" t="n">
         <v>70000</v>
       </c>
-      <c r="J45" s="3" t="n">
+      <c r="J45" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="K45" s="3" t="n">
+      <c r="K45" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="L45" s="3" t="n">
+      <c r="L45" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="M45" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="N45" s="0" t="n">
+      <c r="N45" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" s="0" t="n">
+      <c r="D46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="0" t="n">
+      <c r="G46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J46" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" s="0" t="n">
+      <c r="J46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3656,59 +3731,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="n">
@@ -3726,7 +3801,7 @@
       <c r="G2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I2" s="4" t="n">
@@ -3750,69 +3825,69 @@
       <c r="O2" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI2" s="0" t="n">
+      <c r="R2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0055</v>
       </c>
       <c r="C3" s="4" t="n">
@@ -3830,7 +3905,7 @@
       <c r="G3" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -3854,66 +3929,66 @@
       <c r="O3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="X3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="Z3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AA3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" s="0" t="s">
+      <c r="AB3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="0" t="s">
+      <c r="AC3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="0" t="s">
+      <c r="AD3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="0" t="s">
+      <c r="AE3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="0" t="s">
+      <c r="AF3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="0" t="s">
+      <c r="AG3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="0" t="s">
+      <c r="AH3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AI3" s="0" t="s">
+      <c r="AI3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="5" t="n">
@@ -3934,7 +4009,7 @@
       <c r="G4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I4" s="4" t="n">
@@ -3958,60 +4033,60 @@
       <c r="O4" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V4" s="0" t="n">
+      <c r="T4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="W4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI4" s="0" t="n">
+      <c r="W4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="5" t="n">
@@ -4032,7 +4107,7 @@
       <c r="G5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="n">
@@ -4056,60 +4131,60 @@
       <c r="O5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="0" t="n">
+      <c r="T5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="5" t="n">
@@ -4130,7 +4205,7 @@
       <c r="G6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="n">
@@ -4154,63 +4229,63 @@
       <c r="O6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="0" t="n">
+      <c r="T6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="C7" s="4" t="n">
@@ -4228,7 +4303,7 @@
       <c r="G7" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="I7" s="4" t="n">
@@ -4252,69 +4327,69 @@
       <c r="O7" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AD7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AE7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AF7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AG7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AI7" s="0" t="n">
+      <c r="R7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AI7" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="C8" s="4" t="n">
@@ -4332,7 +4407,7 @@
       <c r="G8" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="I8" s="4" t="n">
@@ -4356,69 +4431,69 @@
       <c r="O8" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AG8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AI8" s="0" t="n">
+      <c r="R8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AI8" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="n">
@@ -4436,7 +4511,7 @@
       <c r="G9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I9" s="4" t="n">
@@ -4460,69 +4535,69 @@
       <c r="O9" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI9" s="0" t="n">
+      <c r="R9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>20000</v>
       </c>
       <c r="C10" s="4" t="n">
@@ -4540,7 +4615,7 @@
       <c r="G10" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>5000</v>
       </c>
       <c r="I10" s="4" t="n">
@@ -4564,69 +4639,69 @@
       <c r="O10" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AA10" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AB10" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AC10" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AD10" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AE10" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AF10" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AG10" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AH10" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AI10" s="1" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="4" t="n">
@@ -4635,7 +4710,7 @@
       <c r="G11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I11" s="4" t="n">
@@ -4659,1287 +4734,1287 @@
       <c r="O11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V11" s="0" t="n">
+      <c r="R11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="W11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI11" s="0" t="n">
+      <c r="W11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="17" t="n">
+      <c r="I13" s="16" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" s="3" t="n">
+      <c r="L15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="C16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" s="0" t="s">
+      <c r="I16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="R16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S16" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="U16" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X16" s="0" t="s">
+      <c r="S16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y16" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="3" t="n">
+      <c r="Y16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>0.005</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" s="3" t="n">
+      <c r="N17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="T17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="V17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="Y17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="Z17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" s="0" t="s">
+      <c r="C18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3" t="n">
+      <c r="N18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="3" t="n">
+      <c r="N19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="s">
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P20" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="3" t="n">
+      <c r="L20" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K21" s="0" t="s">
+      <c r="C21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S21" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U21" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z21" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA21" s="3" t="n">
+      <c r="L21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA21" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K22" s="0" t="s">
+      <c r="C22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="S22" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U22" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z22" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AA22" s="3" t="n">
+      <c r="L22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA22" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" s="0" t="s">
+      <c r="C23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="O23" s="3" t="n">
+      <c r="O23" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="P23" s="3" t="n">
+      <c r="P23" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="S23" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="U23" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA23" s="3" t="n">
+      <c r="S23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" s="3" t="n">
+      <c r="L24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="S24" s="3" t="n">
+      <c r="S24" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="U24" s="3" t="n">
+      <c r="U24" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Y24" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="Z24" s="3" t="n">
+      <c r="Z24" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AA24" s="3" t="n">
+      <c r="AA24" s="1" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
-      <c r="I25" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="S25" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U25" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="3" t="n">
+      <c r="B25" s="1"/>
+      <c r="I25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="S25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P26" s="0" t="s">
+      <c r="P26" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H27" s="0" t="s">
+      <c r="B27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="0" t="s">
+      <c r="I27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="0" t="s">
+      <c r="M27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S27" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="W27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y27" s="0" t="s">
+      <c r="S27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z27" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" s="0" t="n">
+      <c r="Z27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="N28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="0" t="s">
+      <c r="O28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q28" s="3"/>
-      <c r="S28" s="3" t="s">
+      <c r="Q28" s="1"/>
+      <c r="S28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T28" s="0" t="s">
+      <c r="T28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U28" s="0" t="s">
+      <c r="U28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="V28" s="0" t="s">
+      <c r="V28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="W28" s="0" t="s">
+      <c r="W28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="Z28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA28" s="0" t="s">
+      <c r="AA28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AB28" s="0" t="s">
+      <c r="AB28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AC28" s="0" t="s">
+      <c r="AC28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD28" s="0" t="s">
+      <c r="AD28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE28" s="0" t="s">
+      <c r="AE28" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" s="0" t="n">
+      <c r="B29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="N29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3"/>
-      <c r="S29" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="3" t="n">
+      <c r="N29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="S29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AA29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="3"/>
-      <c r="S30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="0" t="n">
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="S30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3"/>
-      <c r="S31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="0" t="n">
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="S31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P32" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q32" s="3"/>
-      <c r="S32" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z32" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AD32" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AE32" s="0" t="n">
+      <c r="B32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="S32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE32" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P33" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q33" s="3"/>
-      <c r="S33" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z33" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AA33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD33" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AE33" s="0" t="n">
+      <c r="B33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="S33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE33" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="P34" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="3"/>
-      <c r="S34" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="T34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z34" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE34" s="0" t="n">
+      <c r="B34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="S34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE34" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="1" t="n">
         <v>40000</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="M35" s="1" t="n">
         <v>60000</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="O35" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="P35" s="3" t="n">
+      <c r="P35" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="Q35" s="3"/>
-      <c r="S35" s="3" t="n">
+      <c r="Q35" s="1"/>
+      <c r="S35" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="T35" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="U35" s="0" t="n">
+      <c r="U35" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="V35" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="W35" s="0" t="n">
+      <c r="W35" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="Z35" s="3" t="n">
+      <c r="Z35" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AA35" s="0" t="n">
+      <c r="AA35" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="AB35" s="0" t="n">
+      <c r="AB35" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="AC35" s="0" t="n">
+      <c r="AC35" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="AD35" s="0" t="n">
+      <c r="AD35" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="AE35" s="0" t="n">
+      <c r="AE35" s="1" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" s="0" t="n">
+      <c r="B36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="N36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="3"/>
-      <c r="S36" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z36" s="3" t="n">
+      <c r="N36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="S36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE36" s="0" t="n">
+      <c r="AA36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE36" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I38" s="4" t="n">
@@ -5947,10 +6022,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C39" s="4" t="n">
@@ -5961,10 +6036,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="C40" s="4" t="n">
@@ -5975,10 +6050,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="18" t="n">
+      <c r="B41" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="6"/>
@@ -5987,10 +6062,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="18" t="n">
+      <c r="B42" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="6"/>
@@ -5999,10 +6074,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="18" t="n">
+      <c r="B43" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="6"/>
@@ -6011,10 +6086,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="C44" s="4" t="n">
@@ -6025,10 +6100,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="C45" s="4" t="n">
@@ -6039,10 +6114,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C46" s="4" t="n">
@@ -6053,10 +6128,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="1" t="n">
         <v>5000</v>
       </c>
       <c r="C47" s="4" t="n">
@@ -6067,7 +6142,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="4" t="n">
         <v>4</v>
       </c>
@@ -6096,163 +6171,163 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="1" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.035</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -6281,160 +6356,160 @@
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="D2" s="19" t="n">
+      <c r="D2" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="19" t="n">
+      <c r="J2" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="K2" s="19" t="n">
+      <c r="K2" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="L2" s="19" t="n">
+      <c r="L2" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="M2" s="19" t="n">
+      <c r="M2" s="17" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="19" t="n">
+      <c r="J3" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="19" t="n">
+      <c r="K3" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.015</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="17" t="n">
         <v>0.015</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="J4" s="19" t="n">
+      <c r="J4" s="17" t="n">
         <v>0.003</v>
       </c>
-      <c r="K4" s="19" t="n">
+      <c r="K4" s="17" t="n">
         <v>0.005</v>
       </c>
-      <c r="L4" s="19" t="n">
+      <c r="L4" s="17" t="n">
         <v>0.007</v>
       </c>
-      <c r="M4" s="19" t="n">
+      <c r="M4" s="17" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -6454,581 +6529,1204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
+      <selection pane="topLeft" activeCell="U18" activeCellId="0" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>113</v>
       </c>
+      <c r="N1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L2" s="22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" s="22" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T2" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U2" s="24" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="22" t="n">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="22" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U4" s="24" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="A5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="H5" s="21" t="n">
+      <c r="H5" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="I5" s="21" t="n">
+      <c r="I5" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="J5" s="21" t="n">
+      <c r="J5" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="K5" s="22" t="n">
+      <c r="K5" s="20" t="n">
         <v>1.5</v>
       </c>
-      <c r="L5" s="22" t="n">
+      <c r="L5" s="20" t="n">
         <v>1.5</v>
       </c>
-      <c r="M5" s="22" t="n">
+      <c r="M5" s="24" t="n">
         <v>1.5</v>
       </c>
+      <c r="N5" s="20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q5" s="24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" s="24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" s="24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U5" s="24" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="25" t="n">
         <v>0.005</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="25" t="n">
         <v>0.003</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="G6" s="24" t="n">
+      <c r="G6" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="J6" s="24" t="n">
+      <c r="J6" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="K6" s="22" t="n">
+      <c r="K6" s="20" t="n">
         <v>0.002</v>
       </c>
-      <c r="L6" s="22" t="n">
+      <c r="L6" s="20" t="n">
         <v>0.002</v>
       </c>
-      <c r="M6" s="22" t="n">
+      <c r="M6" s="24" t="n">
         <v>0.002</v>
       </c>
+      <c r="N6" s="20" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="P6" s="26" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="Q6" s="23" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="R6" s="23" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="T6" s="23" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U6" s="23" t="n">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="22" t="n">
+      <c r="B7" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="24" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="G8" s="21" t="n">
+      <c r="G8" s="19" t="n">
         <v>0.7</v>
       </c>
-      <c r="H8" s="21" t="n">
+      <c r="H8" s="19" t="n">
         <v>0.7</v>
       </c>
-      <c r="I8" s="21" t="n">
+      <c r="I8" s="19" t="n">
         <v>0.7</v>
       </c>
-      <c r="J8" s="21" t="n">
+      <c r="J8" s="19" t="n">
         <v>0.7</v>
       </c>
-      <c r="K8" s="22" t="n">
+      <c r="K8" s="20" t="n">
         <v>0.7</v>
       </c>
-      <c r="L8" s="22" t="n">
+      <c r="L8" s="20" t="n">
         <v>0.7</v>
       </c>
-      <c r="M8" s="22" t="n">
+      <c r="M8" s="24" t="n">
         <v>0.7</v>
       </c>
+      <c r="N8" s="20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P8" s="20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R8" s="24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T8" s="24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U8" s="24" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="24" t="n">
+      <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="24" t="n">
+      <c r="D9" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="24" t="n">
+      <c r="G9" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="J9" s="24" t="n">
+      <c r="J9" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="K9" s="23" t="n">
+      <c r="K9" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="L9" s="23" t="n">
+      <c r="L9" s="26" t="n">
         <v>10</v>
       </c>
       <c r="M9" s="23" t="n">
         <v>8</v>
       </c>
+      <c r="N9" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O9" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="R9" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="T9" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="U9" s="23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="1" t="n">
+      <c r="A10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="G10" s="21" t="n">
+      <c r="G10" s="19" t="n">
         <v>1.2</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="19" t="n">
         <v>1.2</v>
       </c>
-      <c r="I10" s="21" t="n">
+      <c r="I10" s="19" t="n">
         <v>1.2</v>
       </c>
-      <c r="J10" s="21" t="n">
+      <c r="J10" s="19" t="n">
         <v>1.2</v>
       </c>
-      <c r="K10" s="22" t="n">
+      <c r="K10" s="20" t="n">
         <v>1.2</v>
       </c>
-      <c r="L10" s="22" t="n">
+      <c r="L10" s="20" t="n">
         <v>1.2</v>
       </c>
-      <c r="M10" s="22" t="n">
+      <c r="M10" s="24" t="n">
         <v>1.2</v>
       </c>
+      <c r="N10" s="20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O10" s="20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" s="20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R10" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" s="23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="25" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H11" s="21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I11" s="21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J11" s="21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K11" s="22" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L11" s="22" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M11" s="22" t="n">
-        <v>0.6</v>
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N11" s="20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O11" s="20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q11" s="24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R11" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T11" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U11" s="23" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="1" t="n">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="D12" s="24" t="n">
+      <c r="D12" s="25" t="n">
         <v>50000</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="25" t="n">
         <v>50000</v>
       </c>
-      <c r="F12" s="24" t="n">
+      <c r="F12" s="25" t="n">
         <v>10000</v>
       </c>
-      <c r="G12" s="24" t="n">
+      <c r="G12" s="25" t="n">
         <v>10000</v>
       </c>
-      <c r="H12" s="24" t="n">
+      <c r="H12" s="25" t="n">
         <v>5000</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="25" t="n">
         <v>5000</v>
       </c>
-      <c r="J12" s="21" t="n">
+      <c r="J12" s="19" t="n">
         <v>5000</v>
       </c>
-      <c r="K12" s="22" t="n">
+      <c r="K12" s="20" t="n">
         <v>5000</v>
       </c>
-      <c r="L12" s="22" t="n">
+      <c r="L12" s="20" t="n">
         <v>5000</v>
       </c>
-      <c r="M12" s="22" t="n">
+      <c r="M12" s="24" t="n">
         <v>5000</v>
       </c>
+      <c r="N12" s="20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O12" s="20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P12" s="20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q12" s="23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R12" s="23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T12" s="23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="U12" s="23" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="A13" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="23" t="n">
+      <c r="A14" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="26" t="n">
         <v>12</v>
       </c>
       <c r="M14" s="23" t="n">
         <v>9</v>
       </c>
+      <c r="N14" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="P14" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="R14" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K15" s="28" t="s">
+      <c r="B15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="M15" s="32" t="s">
         <v>69</v>
       </c>
+      <c r="Q15" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="34" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="35" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="34" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="34" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="34" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="35" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="36"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="37"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="34" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="35" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="34" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="34" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="34" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="35" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="36"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="37"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="34" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="35" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="34" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="34" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="34" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="34" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="35" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="36"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="132">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -483,7 +483,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,7 +511,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor rgb="FF729FCF"/>
       </patternFill>
     </fill>
     <fill>
@@ -530,6 +530,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
@@ -622,7 +628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -755,6 +761,26 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -764,14 +790,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -802,7 +820,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -824,7 +842,7 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -6531,8 +6549,8 @@
   </sheetPr>
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U18" activeCellId="0" sqref="U18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7511,7 +7529,7 @@
       <c r="A31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="38" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7519,7 +7537,7 @@
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="34" t="n">
+      <c r="B32" s="39" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7527,7 +7545,7 @@
       <c r="A33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="34" t="n">
+      <c r="B33" s="39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7535,7 +7553,7 @@
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="34" t="n">
+      <c r="B34" s="39" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7543,7 +7561,7 @@
       <c r="A35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="34" t="n">
+      <c r="B35" s="39" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7551,7 +7569,7 @@
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="35" t="n">
+      <c r="B36" s="40" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -7559,7 +7577,7 @@
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="34" t="n">
+      <c r="B37" s="39" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7567,7 +7585,7 @@
       <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="34" t="n">
+      <c r="B38" s="39" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -7575,7 +7593,7 @@
       <c r="A39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="35" t="n">
+      <c r="B39" s="40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7583,7 +7601,7 @@
       <c r="A40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="34" t="n">
+      <c r="B40" s="39" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7591,7 +7609,7 @@
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="34" t="n">
+      <c r="B41" s="39" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7599,7 +7617,7 @@
       <c r="A42" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="35" t="n">
+      <c r="B42" s="40" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -7624,15 +7642,21 @@
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="38" t="s">
         <v>102</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="34" t="n">
+      <c r="B48" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="39" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7640,7 +7664,10 @@
       <c r="A49" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="34" t="n">
+      <c r="B49" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7648,7 +7675,10 @@
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="34" t="n">
+      <c r="B50" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="39" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7656,7 +7686,10 @@
       <c r="A51" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="34" t="n">
+      <c r="B51" s="39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C51" s="39" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7664,7 +7697,10 @@
       <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="35" t="n">
+      <c r="B52" s="40" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C52" s="40" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -7672,7 +7708,10 @@
       <c r="A53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="34" t="n">
+      <c r="B53" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="39" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7680,7 +7719,10 @@
       <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="34" t="n">
+      <c r="B54" s="39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C54" s="39" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -7688,15 +7730,21 @@
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="35" t="n">
+      <c r="B55" s="40" t="n">
         <v>9</v>
+      </c>
+      <c r="C55" s="40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="34" t="n">
+      <c r="B56" s="39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C56" s="39" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7704,7 +7752,10 @@
       <c r="A57" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="34" t="n">
+      <c r="B57" s="39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C57" s="39" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7712,8 +7763,11 @@
       <c r="A58" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="35" t="n">
+      <c r="B58" s="40" t="n">
         <v>2500</v>
+      </c>
+      <c r="C58" s="40" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,12 +7775,14 @@
         <v>126</v>
       </c>
       <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
         <v>128</v>
       </c>
       <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="135">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -414,13 +414,22 @@
     <t xml:space="preserve">cell_min_radius_vox</t>
   </si>
   <si>
+    <t xml:space="preserve">DIST_SMOOTH_SIGMA</t>
+  </si>
+  <si>
     <t xml:space="preserve">0H-2</t>
   </si>
   <si>
+    <t xml:space="preserve">H_MAX</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUT 2</t>
   </si>
   <si>
     <t xml:space="preserve">0H-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6H-1</t>
   </si>
 </sst>
 </file>
@@ -628,7 +637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,11 +770,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6547,10 +6564,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="J58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6622,6 +6639,9 @@
       <c r="U1" s="21" t="s">
         <v>103</v>
       </c>
+      <c r="V1" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -6684,6 +6704,9 @@
       <c r="U2" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="V2" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -6746,6 +6769,9 @@
       <c r="U3" s="24" t="n">
         <v>1</v>
       </c>
+      <c r="V3" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -6808,6 +6834,9 @@
       <c r="U4" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="V4" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -6870,6 +6899,9 @@
       <c r="U5" s="24" t="n">
         <v>1.5</v>
       </c>
+      <c r="V5" s="24" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -6932,6 +6964,9 @@
       <c r="U6" s="23" t="n">
         <v>0.002</v>
       </c>
+      <c r="V6" s="23" t="n">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -6994,6 +7029,9 @@
       <c r="U7" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="V7" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -7056,6 +7094,9 @@
       <c r="U8" s="24" t="n">
         <v>0.7</v>
       </c>
+      <c r="V8" s="24" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -7118,6 +7159,9 @@
       <c r="U9" s="23" t="n">
         <v>10</v>
       </c>
+      <c r="V9" s="23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -7180,6 +7224,9 @@
       <c r="U10" s="23" t="n">
         <v>6</v>
       </c>
+      <c r="V10" s="23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -7242,6 +7289,9 @@
       <c r="U11" s="23" t="n">
         <v>0.1</v>
       </c>
+      <c r="V11" s="23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -7302,6 +7352,9 @@
         <v>2500</v>
       </c>
       <c r="U12" s="23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="V12" s="23" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -7338,6 +7391,7 @@
       <c r="R13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
@@ -7396,6 +7450,7 @@
       </c>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
@@ -7411,28 +7466,53 @@
       <c r="R15" s="32" t="s">
         <v>69</v>
       </c>
+      <c r="S15" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="T15" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>102</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="T16" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" s="33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="34" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="B17" s="35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="34" t="n">
+      <c r="B18" s="35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7440,7 +7520,7 @@
       <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="34" t="n">
+      <c r="B19" s="35" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7448,7 +7528,7 @@
       <c r="A20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="34" t="n">
+      <c r="B20" s="35" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7456,7 +7536,7 @@
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="35" t="n">
+      <c r="B21" s="37" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -7464,7 +7544,7 @@
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="34" t="n">
+      <c r="B22" s="35" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7472,7 +7552,7 @@
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="34" t="n">
+      <c r="B23" s="35" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -7480,7 +7560,7 @@
       <c r="A24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="35" t="n">
+      <c r="B24" s="37" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7488,7 +7568,7 @@
       <c r="A25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="34" t="n">
+      <c r="B25" s="35" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7496,7 +7576,7 @@
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="34" t="n">
+      <c r="B26" s="35" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7504,7 +7584,7 @@
       <c r="A27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="35" t="n">
+      <c r="B27" s="37" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -7512,278 +7592,446 @@
       <c r="A28" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="38"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="39"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>130</v>
+      <c r="A30" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>102</v>
+      <c r="B31" s="40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="39" t="n">
-        <v>0.5</v>
+      <c r="B32" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="39" t="n">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="39" t="n">
+        <v>80</v>
+      </c>
+      <c r="B34" s="41" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="39" t="n">
-        <v>1.5</v>
+        <v>120</v>
+      </c>
+      <c r="B35" s="41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="40" t="n">
-        <v>0.002</v>
+        <v>82</v>
+      </c>
+      <c r="B36" s="41" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="39" t="n">
-        <v>0.5</v>
+        <v>121</v>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="39" t="n">
-        <v>0.7</v>
+        <v>84</v>
+      </c>
+      <c r="B38" s="42" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="40" t="n">
-        <v>9</v>
+        <v>79</v>
+      </c>
+      <c r="B39" s="41" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="39" t="n">
-        <v>1.2</v>
+        <v>85</v>
+      </c>
+      <c r="B40" s="41" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="39" t="n">
-        <v>0.6</v>
+        <v>122</v>
+      </c>
+      <c r="B41" s="42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="41" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="41" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="40" t="n">
+      <c r="B44" s="42" t="n">
         <v>2500</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="36"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
+      <c r="B45" s="38"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="37"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="39"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="39" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="39" t="n">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C50" s="39" t="n">
+        <v>80</v>
+      </c>
+      <c r="B50" s="41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="41" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C51" s="39" t="n">
-        <v>1.5</v>
+        <v>120</v>
+      </c>
+      <c r="B51" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="40" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C52" s="40" t="n">
-        <v>0.002</v>
+        <v>82</v>
+      </c>
+      <c r="B52" s="41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="41" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C53" s="39" t="n">
-        <v>0.5</v>
+        <v>121</v>
+      </c>
+      <c r="B53" s="41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C53" s="41" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="39" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C54" s="39" t="n">
-        <v>0.7</v>
+        <v>84</v>
+      </c>
+      <c r="B54" s="42" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C54" s="42" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="40" t="n">
-        <v>9</v>
-      </c>
-      <c r="C55" s="40" t="n">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="B55" s="41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="41" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C56" s="39" t="n">
-        <v>1.2</v>
+        <v>85</v>
+      </c>
+      <c r="B56" s="41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C56" s="41" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C57" s="39" t="n">
-        <v>0.6</v>
+        <v>122</v>
+      </c>
+      <c r="B57" s="42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C57" s="42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C58" s="41" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C59" s="41" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="40" t="n">
+      <c r="B60" s="42" t="n">
         <v>2500</v>
       </c>
-      <c r="C58" s="40" t="n">
+      <c r="C60" s="42" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-    </row>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="41" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="41" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="41" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="42" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="41" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="41" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="41" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="41" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="42" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="38"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="39"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="144">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -414,6 +414,21 @@
     <t xml:space="preserve">cell_min_radius_vox</t>
   </si>
   <si>
+    <t xml:space="preserve">AUT 1*0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU 1 op 1*0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU 1 op 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU 1 op 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU 1 op 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIST_SMOOTH_SIGMA</t>
   </si>
   <si>
@@ -421,6 +436,18 @@
   </si>
   <si>
     <t xml:space="preserve">H_MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-3</t>
   </si>
   <si>
     <t xml:space="preserve">AUT 2</t>
@@ -492,7 +519,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +572,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
         <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF860D"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
@@ -637,7 +670,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -766,15 +799,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -782,31 +815,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,7 +886,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
@@ -893,9 +914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>473040</xdr:colOff>
+      <xdr:colOff>472320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -908,8 +929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6180480" y="130320"/>
-          <a:ext cx="7986240" cy="265680"/>
+          <a:off x="6183720" y="130320"/>
+          <a:ext cx="7993080" cy="264960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,7 +1129,7 @@
       <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.78"/>
@@ -2696,7 +2717,7 @@
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="21.56"/>
   </cols>
@@ -3764,7 +3785,7 @@
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.56"/>
@@ -6204,7 +6225,7 @@
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.76"/>
   </cols>
@@ -6388,7 +6409,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -6564,13 +6585,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.76"/>
   </cols>
@@ -6630,7 +6651,7 @@
       <c r="R1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="T1" s="21" t="s">
@@ -6639,8 +6660,14 @@
       <c r="U1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="21" t="s">
         <v>104</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,6 +6734,12 @@
       <c r="V2" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="W2" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -6772,6 +6805,12 @@
       <c r="V3" s="24" t="n">
         <v>1</v>
       </c>
+      <c r="W3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -6837,6 +6876,12 @@
       <c r="V4" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="W4" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -6902,6 +6947,12 @@
       <c r="V5" s="24" t="n">
         <v>1.5</v>
       </c>
+      <c r="W5" s="24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X5" s="24" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -6967,6 +7018,12 @@
       <c r="V6" s="23" t="n">
         <v>0.002</v>
       </c>
+      <c r="W6" s="23" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="X6" s="23" t="n">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -7032,6 +7089,12 @@
       <c r="V7" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="W7" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X7" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -7097,6 +7160,12 @@
       <c r="V8" s="24" t="n">
         <v>0.7</v>
       </c>
+      <c r="W8" s="24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X8" s="24" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -7162,6 +7231,12 @@
       <c r="V9" s="23" t="n">
         <v>10</v>
       </c>
+      <c r="W9" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" s="23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -7227,6 +7302,12 @@
       <c r="V10" s="23" t="n">
         <v>6</v>
       </c>
+      <c r="W10" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" s="23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -7292,6 +7373,12 @@
       <c r="V11" s="23" t="n">
         <v>0.1</v>
       </c>
+      <c r="W11" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X11" s="23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -7355,6 +7442,12 @@
         <v>2500</v>
       </c>
       <c r="V12" s="23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="W12" s="23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="X12" s="23" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -7392,6 +7485,8 @@
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
@@ -7451,51 +7546,92 @@
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
       <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>119</v>
+      <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="K15" s="31"/>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="T15" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="33" t="n">
+      <c r="S15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="X15" s="19" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" s="33" t="n">
+      <c r="C16" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="T16" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="U16" s="33" t="n">
+      <c r="U16" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="V16" s="33" t="n">
+      <c r="V16" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="X16" s="19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7506,7 +7642,28 @@
       <c r="B17" s="35" t="n">
         <v>0.5</v>
       </c>
-      <c r="V17" s="36"/>
+      <c r="C17" s="36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V17" s="27"/>
+      <c r="W17" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
@@ -7515,6 +7672,21 @@
       <c r="B18" s="35" t="n">
         <v>1</v>
       </c>
+      <c r="C18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
@@ -7523,6 +7695,21 @@
       <c r="B19" s="35" t="n">
         <v>0.5</v>
       </c>
+      <c r="C19" s="36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
@@ -7531,12 +7718,42 @@
       <c r="B20" s="35" t="n">
         <v>1.5</v>
       </c>
+      <c r="C20" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="32" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="37" t="n">
+      <c r="B21" s="34" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C21" s="36" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D21" s="32" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E21" s="36" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="F21" s="36" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G21" s="34" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -7547,6 +7764,21 @@
       <c r="B22" s="35" t="n">
         <v>0.5</v>
       </c>
+      <c r="C22" s="36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
@@ -7555,13 +7787,47 @@
       <c r="B23" s="35" t="n">
         <v>0.7</v>
       </c>
+      <c r="C23" s="36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">1.233-0.553</f>
+        <v>0.68</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="37" t="n">
+      <c r="B24" s="34" t="n">
         <v>9</v>
+      </c>
+      <c r="C24" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" s="34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" s="34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,6 +7837,21 @@
       <c r="B25" s="35" t="n">
         <v>1.2</v>
       </c>
+      <c r="C25" s="36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D25" s="32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F25" s="33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G25" s="32" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
@@ -7579,53 +7860,168 @@
       <c r="B26" s="35" t="n">
         <v>0.6</v>
       </c>
+      <c r="C26" s="36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="32" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="37" t="n">
+      <c r="B27" s="34" t="n">
         <v>2500</v>
+      </c>
+      <c r="C27" s="36" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D27" s="32" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="33" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="33" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G27" s="32" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="J28" s="0" t="n">
+        <f aca="false">1.658-1.02</f>
+        <v>0.638</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>11657</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>11803</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>11276</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>11385</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">1.743-1.02</f>
+        <v>0.723</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>0.619046</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="39"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="J29" s="0" t="n">
+        <f aca="false">1-(0.508603/0.638)</f>
+        <v>0.202816614420063</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <f aca="false">1-(L28/M28)</f>
+        <v>0.0123697365076676</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">1-(O28/P28)</f>
+        <v>0.0095740008783487</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <f aca="false">1-(S28/R28)</f>
+        <v>0.143781466113416</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="40" t="n">
+        <v>134</v>
+      </c>
+      <c r="B30" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="40" t="n">
+        <v>136</v>
+      </c>
+      <c r="B31" s="18" t="n">
         <v>2</v>
       </c>
+      <c r="C31" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>132</v>
+      <c r="B32" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7633,7 +8029,7 @@
       <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="41" t="n">
+      <c r="B34" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7641,7 +8037,7 @@
       <c r="A35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="41" t="n">
+      <c r="B35" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7649,7 +8045,7 @@
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="41" t="n">
+      <c r="B36" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7657,7 +8053,7 @@
       <c r="A37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="41" t="n">
+      <c r="B37" s="19" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7665,7 +8061,7 @@
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="42" t="n">
+      <c r="B38" s="25" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -7673,7 +8069,7 @@
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="41" t="n">
+      <c r="B39" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7681,7 +8077,7 @@
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="41" t="n">
+      <c r="B40" s="19" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -7689,7 +8085,7 @@
       <c r="A41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="42" t="n">
+      <c r="B41" s="25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7697,7 +8093,7 @@
       <c r="A42" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="41" t="n">
+      <c r="B42" s="19" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7705,7 +8101,7 @@
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="41" t="n">
+      <c r="B43" s="19" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7713,7 +8109,7 @@
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="42" t="n">
+      <c r="B44" s="25" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -7721,7 +8117,7 @@
       <c r="A45" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="37"/>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
@@ -7730,18 +8126,18 @@
       <c r="B46" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7749,10 +8145,10 @@
       <c r="A50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C50" s="41" t="n">
+      <c r="B50" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7760,10 +8156,10 @@
       <c r="A51" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="41" t="n">
+      <c r="B51" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7771,10 +8167,10 @@
       <c r="A52" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C52" s="41" t="n">
+      <c r="B52" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7782,10 +8178,10 @@
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="41" t="n">
+      <c r="B53" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="C53" s="41" t="n">
+      <c r="C53" s="19" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7793,10 +8189,10 @@
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="42" t="n">
+      <c r="B54" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="C54" s="42" t="n">
+      <c r="C54" s="25" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -7804,10 +8200,10 @@
       <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C55" s="41" t="n">
+      <c r="B55" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7815,10 +8211,10 @@
       <c r="A56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="41" t="n">
+      <c r="B56" s="19" t="n">
         <v>0.7</v>
       </c>
-      <c r="C56" s="41" t="n">
+      <c r="C56" s="19" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -7826,10 +8222,10 @@
       <c r="A57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="42" t="n">
+      <c r="B57" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="C57" s="42" t="n">
+      <c r="C57" s="25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7837,10 +8233,10 @@
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="41" t="n">
+      <c r="B58" s="19" t="n">
         <v>1.2</v>
       </c>
-      <c r="C58" s="41" t="n">
+      <c r="C58" s="19" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7848,10 +8244,10 @@
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="41" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C59" s="41" t="n">
+      <c r="B59" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C59" s="19" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7859,10 +8255,10 @@
       <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="42" t="n">
+      <c r="B60" s="25" t="n">
         <v>2500</v>
       </c>
-      <c r="C60" s="42" t="n">
+      <c r="C60" s="25" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -7870,8 +8266,8 @@
       <c r="A61" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
@@ -7882,36 +8278,36 @@
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="33" t="n">
+        <v>134</v>
+      </c>
+      <c r="B63" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="33" t="n">
+        <v>136</v>
+      </c>
+      <c r="B64" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="33" t="n">
+      <c r="C64" s="19" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="25" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7919,7 +8315,7 @@
       <c r="A69" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="41" t="n">
+      <c r="B69" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7927,7 +8323,7 @@
       <c r="A70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="41" t="n">
+      <c r="B70" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7935,7 +8331,7 @@
       <c r="A71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="41" t="n">
+      <c r="B71" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7943,7 +8339,7 @@
       <c r="A72" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="41" t="n">
+      <c r="B72" s="19" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7951,7 +8347,7 @@
       <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="42" t="n">
+      <c r="B73" s="25" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -7959,7 +8355,7 @@
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="41" t="n">
+      <c r="B74" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7967,7 +8363,7 @@
       <c r="A75" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="41" t="n">
+      <c r="B75" s="19" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -7975,7 +8371,7 @@
       <c r="A76" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="42" t="n">
+      <c r="B76" s="25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7983,7 +8379,7 @@
       <c r="A77" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="41" t="n">
+      <c r="B77" s="19" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7991,7 +8387,7 @@
       <c r="A78" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="41" t="n">
+      <c r="B78" s="19" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7999,7 +8395,7 @@
       <c r="A79" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="42" t="n">
+      <c r="B79" s="25" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -8007,7 +8403,7 @@
       <c r="A80" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="38"/>
+      <c r="B80" s="37"/>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
@@ -8017,21 +8413,20 @@
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="33" t="n">
+        <v>134</v>
+      </c>
+      <c r="B82" s="19" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" s="33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>136</v>
+      </c>
+      <c r="B83" s="19" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="144">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -807,15 +807,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6585,10 +6585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6669,6 +6669,12 @@
       <c r="X1" s="21" t="s">
         <v>106</v>
       </c>
+      <c r="Y1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -6740,6 +6746,12 @@
       <c r="X2" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y2" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z2" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -6811,6 +6823,12 @@
       <c r="X3" s="24" t="n">
         <v>1</v>
       </c>
+      <c r="Y3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -6882,6 +6900,12 @@
       <c r="X4" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y4" s="24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z4" s="24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -6953,6 +6977,12 @@
       <c r="X5" s="24" t="n">
         <v>1.5</v>
       </c>
+      <c r="Y5" s="24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z5" s="24" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -7024,6 +7054,12 @@
       <c r="X6" s="23" t="n">
         <v>0.002</v>
       </c>
+      <c r="Y6" s="23" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Z6" s="23" t="n">
+        <v>0.003</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -7095,6 +7131,12 @@
       <c r="X7" s="24" t="n">
         <v>0.5</v>
       </c>
+      <c r="Y7" s="23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z7" s="23" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -7166,6 +7208,12 @@
       <c r="X8" s="24" t="n">
         <v>0.6</v>
       </c>
+      <c r="Y8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -7237,6 +7285,12 @@
       <c r="X9" s="23" t="n">
         <v>10</v>
       </c>
+      <c r="Y9" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -7308,6 +7362,12 @@
       <c r="X10" s="23" t="n">
         <v>6</v>
       </c>
+      <c r="Y10" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -7379,6 +7439,12 @@
       <c r="X11" s="23" t="n">
         <v>0.1</v>
       </c>
+      <c r="Y11" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z11" s="23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -7448,6 +7514,12 @@
         <v>2500</v>
       </c>
       <c r="X12" s="23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Y12" s="23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Z12" s="23" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -7487,6 +7559,8 @@
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
       <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
@@ -7548,6 +7622,8 @@
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
@@ -7593,6 +7669,12 @@
       <c r="X15" s="19" t="n">
         <v>2</v>
       </c>
+      <c r="Y15" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -7613,8 +7695,14 @@
       <c r="F16" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>107</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="S16" s="19" t="s">
         <v>136</v>
@@ -7632,6 +7720,12 @@
         <v>4</v>
       </c>
       <c r="X16" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7639,10 +7733,10 @@
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="36" t="n">
+      <c r="B17" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="35" t="n">
         <v>0.5</v>
       </c>
       <c r="D17" s="32" t="n">
@@ -7655,6 +7749,12 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="22" t="n">
         <v>0.5</v>
       </c>
       <c r="V17" s="27"/>
@@ -7669,10 +7769,10 @@
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="36" t="n">
+      <c r="B18" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="35" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="32" t="n">
@@ -7685,6 +7785,12 @@
         <v>1</v>
       </c>
       <c r="G18" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7692,10 +7798,10 @@
       <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="36" t="n">
+      <c r="B19" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="35" t="n">
         <v>0.5</v>
       </c>
       <c r="D19" s="32" t="n">
@@ -7708,6 +7814,12 @@
         <v>0.5</v>
       </c>
       <c r="G19" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="22" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7715,10 +7827,10 @@
       <c r="A20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="35" t="n">
+      <c r="B20" s="34" t="n">
         <v>1.5</v>
       </c>
-      <c r="C20" s="36" t="n">
+      <c r="C20" s="35" t="n">
         <v>1.5</v>
       </c>
       <c r="D20" s="32" t="n">
@@ -7731,6 +7843,12 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="22" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7738,33 +7856,39 @@
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="36" t="n">
         <v>0.002</v>
       </c>
-      <c r="C21" s="36" t="n">
+      <c r="C21" s="35" t="n">
         <v>0.002</v>
       </c>
       <c r="D21" s="32" t="n">
         <v>0.002</v>
       </c>
-      <c r="E21" s="36" t="n">
+      <c r="E21" s="35" t="n">
         <v>0.0015</v>
       </c>
-      <c r="F21" s="36" t="n">
+      <c r="F21" s="35" t="n">
         <v>0.002</v>
       </c>
-      <c r="G21" s="34" t="n">
+      <c r="G21" s="36" t="n">
         <v>0.002</v>
+      </c>
+      <c r="H21" s="36" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I21" s="26" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="36" t="n">
+      <c r="B22" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="35" t="n">
         <v>0.5</v>
       </c>
       <c r="D22" s="32" t="n">
@@ -7778,28 +7902,40 @@
       </c>
       <c r="G22" s="32" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H22" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="26" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="35" t="n">
+      <c r="B23" s="34" t="n">
         <v>0.7</v>
       </c>
-      <c r="C23" s="36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D23" s="34" t="n">
+      <c r="C23" s="35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="36" t="n">
         <v>0.8</v>
       </c>
-      <c r="E23" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="34" t="n">
+      <c r="E23" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <v>1</v>
       </c>
       <c r="V23" s="0" t="n">
@@ -7811,22 +7947,28 @@
       <c r="A24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="34" t="n">
+      <c r="B24" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="C24" s="36" t="n">
+      <c r="C24" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="D24" s="34" t="n">
+      <c r="D24" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="E24" s="36" t="n">
+      <c r="E24" s="35" t="n">
         <v>8</v>
       </c>
-      <c r="F24" s="36" t="n">
+      <c r="F24" s="35" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="34" t="n">
+      <c r="G24" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" s="26" t="n">
         <v>8</v>
       </c>
     </row>
@@ -7834,10 +7976,10 @@
       <c r="A25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="35" t="n">
+      <c r="B25" s="34" t="n">
         <v>1.2</v>
       </c>
-      <c r="C25" s="36" t="n">
+      <c r="C25" s="35" t="n">
         <v>1.2</v>
       </c>
       <c r="D25" s="32" t="n">
@@ -7850,6 +7992,12 @@
         <v>1.2</v>
       </c>
       <c r="G25" s="32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H25" s="32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I25" s="22" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7857,10 +8005,10 @@
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="35" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C26" s="36" t="n">
+      <c r="B26" s="34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C26" s="35" t="n">
         <v>0.6</v>
       </c>
       <c r="D26" s="32" t="n">
@@ -7873,6 +8021,12 @@
         <v>0.6</v>
       </c>
       <c r="G26" s="32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="22" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7880,10 +8034,10 @@
       <c r="A27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="34" t="n">
+      <c r="B27" s="36" t="n">
         <v>2500</v>
       </c>
-      <c r="C27" s="36" t="n">
+      <c r="C27" s="35" t="n">
         <v>2500</v>
       </c>
       <c r="D27" s="32" t="n">
@@ -7896,6 +8050,12 @@
         <v>2500</v>
       </c>
       <c r="G27" s="32" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H27" s="32" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I27" s="22" t="n">
         <v>2500</v>
       </c>
       <c r="J27" s="0" t="s">
@@ -7915,6 +8075,8 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="0" t="n">
         <f aca="false">1.658-1.02</f>
         <v>0.638</v>
@@ -7936,7 +8098,7 @@
         <v>0.723</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>0.619046</v>
+        <v>0.700903</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,9 +8111,11 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="0" t="n">
-        <f aca="false">1-(0.508603/0.638)</f>
-        <v>0.202816614420063</v>
+        <f aca="false">1-(0.588586/0.638)</f>
+        <v>0.0774514106583072</v>
       </c>
       <c r="M29" s="0" t="n">
         <f aca="false">1-(L28/M28)</f>
@@ -7963,7 +8127,7 @@
       </c>
       <c r="R29" s="0" t="n">
         <f aca="false">1-(S28/R28)</f>
-        <v>0.143781466113416</v>
+        <v>0.0305629322268327</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7973,7 +8137,7 @@
       <c r="B30" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="36" t="n">
+      <c r="C30" s="35" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="32" t="n">
@@ -7986,6 +8150,12 @@
         <v>1</v>
       </c>
       <c r="G30" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,7 +8166,7 @@
       <c r="B31" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="36" t="n">
+      <c r="C31" s="35" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="32" t="n">
@@ -8009,6 +8179,12 @@
         <v>2</v>
       </c>
       <c r="G31" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8016,6 +8192,14 @@
       <c r="B32" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="M32" s="0" t="n">
+        <f aca="false">1.446-0.68</f>
+        <v>0.766</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">1.148-0.595</f>
+        <v>0.553</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
@@ -8024,6 +8208,10 @@
       <c r="B33" s="18" t="s">
         <v>102</v>
       </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">1.701-1.063</f>
+        <v>0.638</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
@@ -8032,6 +8220,10 @@
       <c r="B34" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">1-(J33/0.78)</f>
+        <v>0.182051282051282</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
@@ -8064,6 +8256,10 @@
       <c r="B38" s="25" t="n">
         <v>0.002</v>
       </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">0.85-0.34</f>
+        <v>0.51</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
@@ -8140,6 +8336,9 @@
       <c r="C49" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="D49" s="25" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
@@ -8151,6 +8350,9 @@
       <c r="C50" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="D50" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
@@ -8162,6 +8364,9 @@
       <c r="C51" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="D51" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
@@ -8173,6 +8378,9 @@
       <c r="C52" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="D52" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
@@ -8184,6 +8392,9 @@
       <c r="C53" s="19" t="n">
         <v>1.5</v>
       </c>
+      <c r="D53" s="19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
@@ -8195,6 +8406,9 @@
       <c r="C54" s="25" t="n">
         <v>0.002</v>
       </c>
+      <c r="D54" s="25" t="n">
+        <v>0.002</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
@@ -8206,6 +8420,9 @@
       <c r="C55" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="D55" s="19" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
@@ -8217,6 +8434,9 @@
       <c r="C56" s="19" t="n">
         <v>0.7</v>
       </c>
+      <c r="D56" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
@@ -8228,6 +8448,9 @@
       <c r="C57" s="25" t="n">
         <v>10</v>
       </c>
+      <c r="D57" s="25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
@@ -8239,6 +8462,9 @@
       <c r="C58" s="19" t="n">
         <v>1.2</v>
       </c>
+      <c r="D58" s="19" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
@@ -8250,6 +8476,9 @@
       <c r="C59" s="19" t="n">
         <v>0.6</v>
       </c>
+      <c r="D59" s="19" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
@@ -8261,6 +8490,9 @@
       <c r="C60" s="25" t="n">
         <v>1000</v>
       </c>
+      <c r="D60" s="25" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
@@ -8268,6 +8500,7 @@
       </c>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
@@ -8275,6 +8508,7 @@
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
@@ -8286,6 +8520,9 @@
       <c r="C63" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="D63" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
@@ -8297,6 +8534,9 @@
       <c r="C64" s="19" t="n">
         <v>2</v>
       </c>
+      <c r="D64" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
@@ -8356,7 +8596,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="19" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="145">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t xml:space="preserve">6H-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3H-1</t>
   </si>
 </sst>
 </file>
@@ -914,9 +917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>472320</xdr:colOff>
+      <xdr:colOff>471960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,7 +933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6183720" y="130320"/>
-          <a:ext cx="7993080" cy="264960"/>
+          <a:ext cx="7992720" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6585,10 +6588,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I93" activeCellId="0" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6672,7 +6675,7 @@
       <c r="Y1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6749,7 +6752,7 @@
       <c r="Y2" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z2" s="24" t="n">
+      <c r="Z2" s="20" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -6826,7 +6829,7 @@
       <c r="Y3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="Z3" s="24" t="n">
+      <c r="Z3" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6903,7 +6906,7 @@
       <c r="Y4" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z4" s="24" t="n">
+      <c r="Z4" s="20" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -6980,7 +6983,7 @@
       <c r="Y5" s="24" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z5" s="24" t="n">
+      <c r="Z5" s="20" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7057,7 +7060,7 @@
       <c r="Y6" s="23" t="n">
         <v>0.002</v>
       </c>
-      <c r="Z6" s="23" t="n">
+      <c r="Z6" s="26" t="n">
         <v>0.003</v>
       </c>
     </row>
@@ -7134,7 +7137,7 @@
       <c r="Y7" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="Z7" s="23" t="n">
+      <c r="Z7" s="26" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -7211,7 +7214,7 @@
       <c r="Y8" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="Z8" s="23" t="n">
+      <c r="Z8" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7288,7 +7291,7 @@
       <c r="Y9" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="Z9" s="23" t="n">
+      <c r="Z9" s="26" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7365,7 +7368,7 @@
       <c r="Y10" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="Z10" s="23" t="n">
+      <c r="Z10" s="26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7442,7 +7445,7 @@
       <c r="Y11" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z11" s="23" t="n">
+      <c r="Z11" s="26" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -7519,7 +7522,7 @@
       <c r="Y12" s="23" t="n">
         <v>2500</v>
       </c>
-      <c r="Z12" s="23" t="n">
+      <c r="Z12" s="26" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -7629,16 +7632,16 @@
       <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K15" s="31"/>
@@ -7672,7 +7675,7 @@
       <c r="Y15" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="Z15" s="19" t="n">
+      <c r="Z15" s="20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7725,7 +7728,7 @@
       <c r="Y16" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="Z16" s="19" t="n">
+      <c r="Z16" s="20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7758,10 +7761,10 @@
         <v>0.5</v>
       </c>
       <c r="V17" s="27"/>
-      <c r="W17" s="0" t="s">
+      <c r="W17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="X17" s="0" t="s">
+      <c r="X17" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7938,7 +7941,7 @@
       <c r="I23" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="1" t="n">
         <f aca="false">1.233-0.553</f>
         <v>0.68</v>
       </c>
@@ -8058,10 +8061,10 @@
       <c r="I27" s="22" t="n">
         <v>2500</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O27" s="0" t="s">
+      <c r="O27" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8077,27 +8080,27 @@
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <f aca="false">1.658-1.02</f>
         <v>0.638</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="1" t="n">
         <v>11657</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="1" t="n">
         <v>11803</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28" s="1" t="n">
         <v>11276</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="1" t="n">
         <v>11385</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="1" t="n">
         <f aca="false">1.743-1.02</f>
         <v>0.723</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28" s="1" t="n">
         <v>0.700903</v>
       </c>
     </row>
@@ -8113,19 +8116,19 @@
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <f aca="false">1-(0.588586/0.638)</f>
         <v>0.0774514106583072</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="1" t="n">
         <f aca="false">1-(L28/M28)</f>
         <v>0.0123697365076676</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="1" t="n">
         <f aca="false">1-(O28/P28)</f>
         <v>0.0095740008783487</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="1" t="n">
         <f aca="false">1-(S28/R28)</f>
         <v>0.0305629322268327</v>
       </c>
@@ -8192,11 +8195,11 @@
       <c r="B32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32" s="1" t="n">
         <f aca="false">1.446-0.68</f>
         <v>0.766</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="N32" s="1" t="n">
         <f aca="false">1.148-0.595</f>
         <v>0.553</v>
       </c>
@@ -8208,7 +8211,7 @@
       <c r="B33" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="1" t="n">
         <f aca="false">1.701-1.063</f>
         <v>0.638</v>
       </c>
@@ -8220,7 +8223,7 @@
       <c r="B34" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="1" t="n">
         <f aca="false">1-(J33/0.78)</f>
         <v>0.182051282051282</v>
       </c>
@@ -8256,7 +8259,7 @@
       <c r="B38" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="N38" s="1" t="n">
         <f aca="false">0.85-0.34</f>
         <v>0.51</v>
       </c>
@@ -8336,8 +8339,17 @@
       <c r="C49" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="18" t="s">
         <v>104</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8353,6 +8365,15 @@
       <c r="D50" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="E50" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
@@ -8367,6 +8388,15 @@
       <c r="D51" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="E51" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
@@ -8381,6 +8411,15 @@
       <c r="D52" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="E52" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
@@ -8395,6 +8434,15 @@
       <c r="D53" s="19" t="n">
         <v>1.5</v>
       </c>
+      <c r="E53" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F53" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G53" s="19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
@@ -8409,6 +8457,15 @@
       <c r="D54" s="25" t="n">
         <v>0.002</v>
       </c>
+      <c r="E54" s="25" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F54" s="25" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G54" s="25" t="n">
+        <v>0.003</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
@@ -8423,6 +8480,15 @@
       <c r="D55" s="19" t="n">
         <v>0.4</v>
       </c>
+      <c r="E55" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F55" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G55" s="19" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
@@ -8437,6 +8503,15 @@
       <c r="D56" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="E56" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
@@ -8451,6 +8526,15 @@
       <c r="D57" s="25" t="n">
         <v>10</v>
       </c>
+      <c r="E57" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F57" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" s="25" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
@@ -8465,6 +8549,15 @@
       <c r="D58" s="19" t="n">
         <v>1.2</v>
       </c>
+      <c r="E58" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F58" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G58" s="19" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
@@ -8479,6 +8572,15 @@
       <c r="D59" s="19" t="n">
         <v>0.6</v>
       </c>
+      <c r="E59" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F59" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G59" s="19" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
@@ -8493,6 +8595,15 @@
       <c r="D60" s="25" t="n">
         <v>1000</v>
       </c>
+      <c r="E60" s="25" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="25" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
@@ -8501,6 +8612,9 @@
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
@@ -8509,6 +8623,9 @@
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
@@ -8523,6 +8640,15 @@
       <c r="D63" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="E63" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
@@ -8537,6 +8663,15 @@
       <c r="D64" s="19" t="n">
         <v>2</v>
       </c>
+      <c r="E64" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" s="25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
@@ -8665,6 +8800,180 @@
       </c>
       <c r="B83" s="19" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C90" s="19" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C91" s="25" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C92" s="19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C93" s="19" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C94" s="25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C95" s="19" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C96" s="19" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="25" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C97" s="25" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" s="25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C101" s="25" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="149">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -460,6 +460,18 @@
   </si>
   <si>
     <t xml:space="preserve">3H-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3H-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORE</t>
   </si>
 </sst>
 </file>
@@ -673,7 +685,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -832,6 +844,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6588,10 +6604,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I93" activeCellId="0" sqref="I93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8351,6 +8367,12 @@
       <c r="G49" s="18" t="s">
         <v>107</v>
       </c>
+      <c r="H49" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
@@ -8374,6 +8396,12 @@
       <c r="G50" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="H50" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
@@ -8397,6 +8425,12 @@
       <c r="G51" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="H51" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
@@ -8420,6 +8454,12 @@
       <c r="G52" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="H52" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
@@ -8443,6 +8483,12 @@
       <c r="G53" s="19" t="n">
         <v>1.5</v>
       </c>
+      <c r="H53" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I53" s="19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
@@ -8466,6 +8512,12 @@
       <c r="G54" s="25" t="n">
         <v>0.003</v>
       </c>
+      <c r="H54" s="25" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I54" s="25" t="n">
+        <v>0.003</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
@@ -8489,6 +8541,12 @@
       <c r="G55" s="19" t="n">
         <v>0.4</v>
       </c>
+      <c r="H55" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I55" s="19" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
@@ -8512,6 +8570,12 @@
       <c r="G56" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="H56" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
@@ -8535,6 +8599,12 @@
       <c r="G57" s="25" t="n">
         <v>11</v>
       </c>
+      <c r="H57" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="I57" s="25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
@@ -8558,6 +8628,12 @@
       <c r="G58" s="19" t="n">
         <v>1.2</v>
       </c>
+      <c r="H58" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I58" s="19" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
@@ -8581,6 +8657,12 @@
       <c r="G59" s="19" t="n">
         <v>0.6</v>
       </c>
+      <c r="H59" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I59" s="19" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
@@ -8602,6 +8684,12 @@
         <v>2000</v>
       </c>
       <c r="G60" s="25" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H60" s="25" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I60" s="25" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -8615,6 +8703,8 @@
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
@@ -8626,6 +8716,8 @@
       <c r="E62" s="39"/>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
@@ -8649,6 +8741,12 @@
       <c r="G63" s="25" t="n">
         <v>3</v>
       </c>
+      <c r="H63" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" s="25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
@@ -8672,8 +8770,15 @@
       <c r="G64" s="25" t="n">
         <v>2</v>
       </c>
+      <c r="H64" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>119</v>
       </c>
@@ -8739,7 +8844,7 @@
         <v>85</v>
       </c>
       <c r="B75" s="19" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,6 +8923,15 @@
       <c r="C86" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="D86" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
@@ -8829,6 +8943,12 @@
       <c r="C87" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="D87" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E87" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
@@ -8840,6 +8960,12 @@
       <c r="C88" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="D88" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
@@ -8851,6 +8977,12 @@
       <c r="C89" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="D89" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E89" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
@@ -8862,6 +8994,12 @@
       <c r="C90" s="19" t="n">
         <v>1.5</v>
       </c>
+      <c r="D90" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E90" s="19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
@@ -8873,6 +9011,12 @@
       <c r="C91" s="25" t="n">
         <v>0.003</v>
       </c>
+      <c r="D91" s="25" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E91" s="25" t="n">
+        <v>0.003</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
@@ -8884,16 +9028,28 @@
       <c r="C92" s="19" t="n">
         <v>0.4</v>
       </c>
+      <c r="D92" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E92" s="19" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B93" s="19" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C93" s="19" t="n">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="D93" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8906,6 +9062,15 @@
       <c r="C94" s="25" t="n">
         <v>6</v>
       </c>
+      <c r="D94" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" s="40" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
@@ -8917,6 +9082,12 @@
       <c r="C95" s="19" t="n">
         <v>1.2</v>
       </c>
+      <c r="D95" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E95" s="19" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
@@ -8928,6 +9099,12 @@
       <c r="C96" s="19" t="n">
         <v>0.6</v>
       </c>
+      <c r="D96" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E96" s="19" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
@@ -8939,6 +9116,12 @@
       <c r="C97" s="25" t="n">
         <v>2000</v>
       </c>
+      <c r="D97" s="25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E97" s="25" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="19" t="s">
@@ -8946,6 +9129,8 @@
       </c>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="29" t="s">
@@ -8953,6 +9138,8 @@
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="19" t="s">
@@ -8964,6 +9151,12 @@
       <c r="C100" s="25" t="n">
         <v>3</v>
       </c>
+      <c r="D100" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" s="25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="19" t="s">
@@ -8973,6 +9166,150 @@
         <v>4</v>
       </c>
       <c r="C101" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" s="25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="19" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" s="19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="19" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="19" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="25" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="37"/>
+    </row>
+    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="39"/>
+    </row>
+    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" s="25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="25" t="n">
         <v>2</v>
       </c>
     </row>

--- a/parameters script.xlsx
+++ b/parameters script.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="149">
   <si>
     <t xml:space="preserve">6h 3</t>
   </si>
@@ -459,10 +459,10 @@
     <t xml:space="preserve">6H-1</t>
   </si>
   <si>
+    <t xml:space="preserve">more</t>
+  </si>
+  <si>
     <t xml:space="preserve">3H-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">more</t>
   </si>
   <si>
     <t xml:space="preserve">3H-2</t>
@@ -685,7 +685,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -850,6 +850,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,9 +945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>471960</xdr:colOff>
+      <xdr:colOff>471600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -949,7 +961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6183720" y="130320"/>
-          <a:ext cx="7992720" cy="264600"/>
+          <a:ext cx="7992360" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6606,8 +6618,8 @@
   </sheetPr>
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L55" activeCellId="0" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8370,8 +8382,11 @@
       <c r="H49" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="25" t="s">
+      <c r="I49" s="18" t="s">
         <v>108</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8402,6 +8417,9 @@
       <c r="I50" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="J50" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
@@ -8431,6 +8449,9 @@
       <c r="I51" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="J51" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
@@ -8460,6 +8481,9 @@
       <c r="I52" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="J52" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
@@ -8489,6 +8513,9 @@
       <c r="I53" s="19" t="n">
         <v>1.5</v>
       </c>
+      <c r="J53" s="19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
@@ -8518,6 +8545,9 @@
       <c r="I54" s="25" t="n">
         <v>0.003</v>
       </c>
+      <c r="J54" s="25" t="n">
+        <v>0.003</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
@@ -8547,6 +8577,9 @@
       <c r="I55" s="19" t="n">
         <v>0.4</v>
       </c>
+      <c r="J55" s="19" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
@@ -8576,6 +8609,9 @@
       <c r="I56" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="J56" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
@@ -8605,6 +8641,9 @@
       <c r="I57" s="25" t="n">
         <v>10</v>
       </c>
+      <c r="J57" s="25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
@@ -8634,6 +8673,9 @@
       <c r="I58" s="19" t="n">
         <v>1.2</v>
       </c>
+      <c r="J58" s="19" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
@@ -8663,6 +8705,9 @@
       <c r="I59" s="19" t="n">
         <v>0.6</v>
       </c>
+      <c r="J59" s="19" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
@@ -8690,6 +8735,9 @@
         <v>2500</v>
       </c>
       <c r="I60" s="25" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J60" s="25" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -8705,6 +8753,7 @@
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
@@ -8718,6 +8767,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
@@ -8747,6 +8797,9 @@
       <c r="I63" s="25" t="n">
         <v>3</v>
       </c>
+      <c r="J63" s="25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
@@ -8774,6 +8827,9 @@
         <v>2</v>
       </c>
       <c r="I64" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" s="25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8787,8 +8843,11 @@
       <c r="A68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="18" t="s">
         <v>102</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8798,6 +8857,9 @@
       <c r="B69" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="C69" s="20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
@@ -8806,6 +8868,9 @@
       <c r="B70" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="C70" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
@@ -8814,6 +8879,9 @@
       <c r="B71" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="C71" s="20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
@@ -8822,6 +8890,9 @@
       <c r="B72" s="19" t="n">
         <v>1.5</v>
       </c>
+      <c r="C72" s="20" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
@@ -8830,6 +8901,12 @@
       <c r="B73" s="25" t="n">
         <v>0.002</v>
       </c>
+      <c r="C73" s="26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
@@ -8838,6 +8915,9 @@
       <c r="B74" s="19" t="n">
         <v>0.4</v>
       </c>
+      <c r="C74" s="20" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
@@ -8846,6 +8926,9 @@
       <c r="B75" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="C75" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
@@ -8854,6 +8937,9 @@
       <c r="B76" s="25" t="n">
         <v>9</v>
       </c>
+      <c r="C76" s="41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
@@ -8862,6 +8948,9 @@
       <c r="B77" s="19" t="n">
         <v>1.2</v>
       </c>
+      <c r="C77" s="20" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
@@ -8870,6 +8959,9 @@
       <c r="B78" s="19" t="n">
         <v>0.6</v>
       </c>
+      <c r="C78" s="20" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
@@ -8878,33 +8970,44 @@
       <c r="B79" s="25" t="n">
         <v>2500</v>
       </c>
+      <c r="C79" s="26" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B80" s="37"/>
+      <c r="C80" s="42"/>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
         <v>128</v>
       </c>
       <c r="B81" s="39"/>
+      <c r="C81" s="26"/>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="19" t="n">
-        <v>2</v>
+      <c r="B82" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" s="26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="19" t="n">
-        <v>4</v>
+      <c r="B83" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" s="26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8915,7 +9018,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>102</v>
@@ -8929,7 +9032,7 @@
       <c r="E86" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8949,6 +9052,9 @@
       <c r="E87" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="F87" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
@@ -8966,6 +9072,9 @@
       <c r="E88" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="F88" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
@@ -8983,6 +9092,9 @@
       <c r="E89" s="19" t="n">
         <v>0.5</v>
       </c>
+      <c r="F89" s="19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
@@ -9000,6 +9112,9 @@
       <c r="E90" s="19" t="n">
         <v>1.5</v>
       </c>
+      <c r="F90" s="19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
@@ -9017,6 +9132,9 @@
       <c r="E91" s="25" t="n">
         <v>0.003</v>
       </c>
+      <c r="F91" s="25" t="n">
+        <v>0.003</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
@@ -9034,6 +9152,9 @@
       <c r="E92" s="19" t="n">
         <v>0.4</v>
       </c>
+      <c r="F92" s="19" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
@@ -9051,6 +9172,9 @@
       <c r="E93" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="F93" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
@@ -9068,8 +9192,8 @@
       <c r="E94" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F94" s="40" t="s">
-        <v>145</v>
+      <c r="F94" s="25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,6 +9212,9 @@
       <c r="E95" s="19" t="n">
         <v>1.2</v>
       </c>
+      <c r="F95" s="19" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
@@ -9105,6 +9232,9 @@
       <c r="E96" s="19" t="n">
         <v>0.6</v>
       </c>
+      <c r="F96" s="19" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
@@ -9120,6 +9250,9 @@
         <v>2000</v>
       </c>
       <c r="E97" s="25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F97" s="25" t="n">
         <v>5000</v>
       </c>
     </row>
@@ -9131,6 +9264,7 @@
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="29" t="s">
@@ -9140,6 +9274,7 @@
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="19" t="s">
@@ -9157,6 +9292,9 @@
       <c r="E100" s="25" t="n">
         <v>3</v>
       </c>
+      <c r="F100" s="25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="19" t="s">
@@ -9174,6 +9312,9 @@
       <c r="E101" s="25" t="n">
         <v>2</v>
       </c>
+      <c r="F101" s="25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
@@ -9187,7 +9328,7 @@
       <c r="B104" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9230,7 +9371,7 @@
       <c r="B109" s="25" t="n">
         <v>0.002</v>
       </c>
-      <c r="C109" s="40" t="s">
+      <c r="C109" s="43" t="s">
         <v>147</v>
       </c>
     </row>
@@ -9257,7 +9398,7 @@
       <c r="B112" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>148</v>
       </c>
     </row>
